--- a/output/學生個別表.xlsx
+++ b/output/學生個別表.xlsx
@@ -10,45 +10,51 @@
     <sheet name="伍騏蔚" sheetId="1" r:id="rId1"/>
     <sheet name="侯亭安" sheetId="2" r:id="rId2"/>
     <sheet name="劉嘉恩" sheetId="3" r:id="rId3"/>
-    <sheet name="吳恪臣" sheetId="4" r:id="rId4"/>
-    <sheet name="吳睿丞" sheetId="5" r:id="rId5"/>
-    <sheet name="呂承恩" sheetId="6" r:id="rId6"/>
-    <sheet name="周劭儒" sheetId="7" r:id="rId7"/>
-    <sheet name="廖宥翔" sheetId="8" r:id="rId8"/>
-    <sheet name="廖翊銘" sheetId="9" r:id="rId9"/>
-    <sheet name="徐康鈞" sheetId="10" r:id="rId10"/>
-    <sheet name="徐翊豪" sheetId="11" r:id="rId11"/>
-    <sheet name="朱妙羚" sheetId="12" r:id="rId12"/>
-    <sheet name="李品澔" sheetId="13" r:id="rId13"/>
-    <sheet name="李品諭" sheetId="14" r:id="rId14"/>
-    <sheet name="林品佑" sheetId="15" r:id="rId15"/>
-    <sheet name="林品言" sheetId="16" r:id="rId16"/>
-    <sheet name="林姵岑" sheetId="17" r:id="rId17"/>
-    <sheet name="林政諺" sheetId="18" r:id="rId18"/>
-    <sheet name="林楷哲" sheetId="19" r:id="rId19"/>
-    <sheet name="江嘉祐" sheetId="20" r:id="rId20"/>
-    <sheet name="江學甫" sheetId="21" r:id="rId21"/>
-    <sheet name="王宥閎" sheetId="22" r:id="rId22"/>
-    <sheet name="王祐恩" sheetId="23" r:id="rId23"/>
-    <sheet name="蔡辰哲" sheetId="24" r:id="rId24"/>
-    <sheet name="許語恩" sheetId="25" r:id="rId25"/>
-    <sheet name="謝宜均" sheetId="26" r:id="rId26"/>
-    <sheet name="邱宇綺" sheetId="27" r:id="rId27"/>
-    <sheet name="陳宇翔" sheetId="28" r:id="rId28"/>
-    <sheet name="陳昱璇" sheetId="29" r:id="rId29"/>
-    <sheet name="陳泓均" sheetId="30" r:id="rId30"/>
-    <sheet name="陳泓鍇" sheetId="31" r:id="rId31"/>
-    <sheet name="陳致祐" sheetId="32" r:id="rId32"/>
-    <sheet name="陳言珉" sheetId="33" r:id="rId33"/>
-    <sheet name="黃紳富" sheetId="34" r:id="rId34"/>
-    <sheet name="黃鈺程" sheetId="35" r:id="rId35"/>
+    <sheet name="包敘恩" sheetId="4" r:id="rId4"/>
+    <sheet name="吳恪臣" sheetId="5" r:id="rId5"/>
+    <sheet name="吳睿丞" sheetId="6" r:id="rId6"/>
+    <sheet name="呂承恩" sheetId="7" r:id="rId7"/>
+    <sheet name="周劭儒" sheetId="8" r:id="rId8"/>
+    <sheet name="廖宥翔" sheetId="9" r:id="rId9"/>
+    <sheet name="廖翊銘" sheetId="10" r:id="rId10"/>
+    <sheet name="徐康鈞" sheetId="11" r:id="rId11"/>
+    <sheet name="徐翊豪" sheetId="12" r:id="rId12"/>
+    <sheet name="朱妙羚" sheetId="13" r:id="rId13"/>
+    <sheet name="朱恩霆" sheetId="14" r:id="rId14"/>
+    <sheet name="李品澔" sheetId="15" r:id="rId15"/>
+    <sheet name="李品諭" sheetId="16" r:id="rId16"/>
+    <sheet name="林品佑" sheetId="17" r:id="rId17"/>
+    <sheet name="林品言" sheetId="18" r:id="rId18"/>
+    <sheet name="林姵岑" sheetId="19" r:id="rId19"/>
+    <sheet name="林政諺" sheetId="20" r:id="rId20"/>
+    <sheet name="林楷哲" sheetId="21" r:id="rId21"/>
+    <sheet name="江嘉祐" sheetId="22" r:id="rId22"/>
+    <sheet name="江學甫" sheetId="23" r:id="rId23"/>
+    <sheet name="王宥閎" sheetId="24" r:id="rId24"/>
+    <sheet name="王祐恩" sheetId="25" r:id="rId25"/>
+    <sheet name="蔡辰哲" sheetId="26" r:id="rId26"/>
+    <sheet name="許語恩" sheetId="27" r:id="rId27"/>
+    <sheet name="謝宜均" sheetId="28" r:id="rId28"/>
+    <sheet name="邱宇綺" sheetId="29" r:id="rId29"/>
+    <sheet name="邱康齊" sheetId="30" r:id="rId30"/>
+    <sheet name="陳冠亦" sheetId="31" r:id="rId31"/>
+    <sheet name="陳冠辰" sheetId="32" r:id="rId32"/>
+    <sheet name="陳宇翔" sheetId="33" r:id="rId33"/>
+    <sheet name="陳昱璇" sheetId="34" r:id="rId34"/>
+    <sheet name="陳泓均" sheetId="35" r:id="rId35"/>
+    <sheet name="陳泓鍇" sheetId="36" r:id="rId36"/>
+    <sheet name="陳致祐" sheetId="37" r:id="rId37"/>
+    <sheet name="陳言珉" sheetId="38" r:id="rId38"/>
+    <sheet name="黃睿心" sheetId="39" r:id="rId39"/>
+    <sheet name="黃紳富" sheetId="40" r:id="rId40"/>
+    <sheet name="黃鈺程" sheetId="41" r:id="rId41"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="238">
   <si>
     <t>上課日期</t>
   </si>
@@ -131,31 +137,73 @@
     <t>數位邏輯第三單元完</t>
   </si>
   <si>
+    <t>電子學第四章 共射極</t>
+  </si>
+  <si>
     <t>作業分數：75</t>
   </si>
   <si>
+    <t>無</t>
+  </si>
+  <si>
     <t>14:00</t>
   </si>
   <si>
+    <t>19:00</t>
+  </si>
+  <si>
     <t>16:00</t>
   </si>
   <si>
+    <t>21:00</t>
+  </si>
+  <si>
     <t>3-5立即練習、3-4～3-5課後練習</t>
   </si>
   <si>
+    <t>4-2習題</t>
+  </si>
+  <si>
     <t>有不太確定的部分都會主動提問，3-5比較多邏輯閘互換的題型，有讓他多練習，目前狀況不錯，但寫題的速度可以稍微再快一點</t>
   </si>
   <si>
+    <t>內容都能吸收 公式很繁雜需要多熟悉</t>
+  </si>
+  <si>
     <t>陳禎</t>
   </si>
   <si>
+    <t>劉冠緯</t>
+  </si>
+  <si>
+    <t>基本電學第八章全</t>
+  </si>
+  <si>
+    <t>回：80    考：75</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>基本電學第八張考卷，後半選擇</t>
+  </si>
+  <si>
+    <t>還不錯，但轉換方式還是要記熟</t>
+  </si>
+  <si>
+    <t>粘耀璟</t>
+  </si>
+  <si>
     <t>2024/08/03</t>
   </si>
   <si>
     <t>數學：檢討第2單元三角函數考卷及作業、3-1向量及其基本運算</t>
   </si>
   <si>
-    <t>10:00</t>
+    <t>80 70 35 70 95 65 50</t>
   </si>
   <si>
     <t>12:30</t>
@@ -174,12 +222,6 @@
   </si>
   <si>
     <t>電子學 2-5整流完 濾波到16</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>21:00</t>
   </si>
   <si>
     <t>4-1立即練習、綜合模擬測驗</t>
@@ -196,12 +238,18 @@
 計算部分一樣還ok</t>
   </si>
   <si>
+    <t>2024/08/06</t>
+  </si>
+  <si>
     <t>檢討作業</t>
   </si>
   <si>
     <t>回家作業分數(共20題，沒寫10題)(4/20)：20分</t>
   </si>
   <si>
+    <t>回家作業(3/30):10分</t>
+  </si>
+  <si>
     <t>15:00</t>
   </si>
   <si>
@@ -211,33 +259,64 @@
     <t>統合模擬測驗25題(26-50)</t>
   </si>
   <si>
+    <t>ch3考卷20題</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.態度消極
+2.回家作業一樣沒寫計算過程，因為全部都用猜的，所以基本全錯(30題對3題)，上課檢討作業每一題都要講，很浪費時間。
+3.錯的題目很多，每一題都要講，回應又很差，就像是我自己在唸經。
+4.串並聯不會看。
+</t>
+  </si>
+  <si>
     <t>林祐玄</t>
   </si>
   <si>
     <t>數位邏輯第三章3-1~3-5</t>
   </si>
   <si>
+    <t>數位邏輯第二章</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
     <t>16:30</t>
   </si>
   <si>
+    <t>20:00</t>
+  </si>
+  <si>
     <t>講義選擇</t>
   </si>
   <si>
+    <t>第二章題目</t>
+  </si>
+  <si>
     <t>還行，要背的內容要記熟</t>
   </si>
   <si>
-    <t>粘耀璟</t>
+    <t>林恩宏</t>
   </si>
   <si>
     <t>串並聯</t>
   </si>
   <si>
+    <t>電阻串並聯、第一章</t>
+  </si>
+  <si>
     <t>14:34</t>
   </si>
   <si>
+    <t>19:30</t>
+  </si>
+  <si>
     <t>串並聯電路五題</t>
   </si>
   <si>
+    <t>考卷20題</t>
+  </si>
+  <si>
     <t>王芃元</t>
   </si>
   <si>
@@ -247,9 +326,6 @@
     <t>13:30</t>
   </si>
   <si>
-    <t>無</t>
-  </si>
-  <si>
     <t>吸收狀況良好，練習的題目量拉上去就會熟練</t>
   </si>
   <si>
@@ -259,19 +335,28 @@
     <t>基本電學戴維寧 重疊</t>
   </si>
   <si>
+    <t>基電第四章</t>
+  </si>
+  <si>
     <t>80 100 80</t>
   </si>
   <si>
+    <t>90*4</t>
+  </si>
+  <si>
     <t>17:30</t>
   </si>
   <si>
-    <t>20:00</t>
-  </si>
-  <si>
     <t>基本電學考卷，講義選擇</t>
   </si>
   <si>
+    <t>基地考卷</t>
+  </si>
+  <si>
     <t>還不錯，電路轉換要背熟</t>
+  </si>
+  <si>
+    <t>還行，計算錯誤要注意</t>
   </si>
   <si>
     <t>基本電學複雜進度</t>
@@ -296,12 +381,24 @@
     <t>題目寫比較慢，但基電能力不錯</t>
   </si>
   <si>
+    <t>基本電學3-1</t>
+  </si>
+  <si>
+    <t>機電考卷選擇10題</t>
+  </si>
+  <si>
+    <t>計算速度太慢，需要再加強</t>
+  </si>
+  <si>
     <t>數學第三章</t>
   </si>
   <si>
     <t>電子學3-3</t>
   </si>
   <si>
+    <t>數位邏輯地二張</t>
+  </si>
+  <si>
     <t>沒寫作業</t>
   </si>
   <si>
@@ -314,9 +411,6 @@
     <t>計算能力要加強，算式列的出來但會算錯</t>
   </si>
   <si>
-    <t>林恩宏</t>
-  </si>
-  <si>
     <t>胡之耀</t>
   </si>
   <si>
@@ -362,30 +456,66 @@
     <t>張孟綺</t>
   </si>
   <si>
+    <t>數位邏輯4-3，4-4</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>第四章綜合模擬試題+歷屆</t>
+  </si>
+  <si>
+    <t>熟悉卡諾圖化簡</t>
+  </si>
+  <si>
+    <t>吳冬羽</t>
+  </si>
+  <si>
     <t>電子學2-2~2-3</t>
   </si>
   <si>
+    <t>電子學3-1</t>
+  </si>
+  <si>
     <t>回：65  考試：70</t>
   </si>
   <si>
+    <t>回：70  考：60</t>
+  </si>
+  <si>
     <t>15:30</t>
   </si>
   <si>
     <t>電子學考卷</t>
   </si>
   <si>
+    <t>電子學講義選擇22題</t>
+  </si>
+  <si>
     <t>材料的內容要背熟，公式也要記熟</t>
   </si>
   <si>
+    <t>還行，元素要背</t>
+  </si>
+  <si>
     <t>電子學第二章作業檢討</t>
   </si>
   <si>
+    <t xml:space="preserve">數位邏輯複習5-1 5-2 </t>
+  </si>
+  <si>
     <t>二極體練習卷，第二章課本歷屆</t>
   </si>
   <si>
+    <t>5-2 精選範例 學生演練 9~14</t>
+  </si>
+  <si>
     <t>觀念的部分幾乎是忘光，題型基本上全部都要重新講一次，複習的階段比較像是幫補充之前的內容，或是再更深入的講一下，但今天上課時問的許多基礎觀念都答不出來，還有許多名詞只知道英文代號但不知道代表的意義(只會算但請他解釋卻沒辦法，或著題目如果寫中文可能就不知道再指什麼)，如果是實習的題目就可能會答不出來，理論的部分特別弱，需要加強，BJT的部分還沒複習到，但是是下一章而且內容相關，但也是基本觀念都忘記。花很多時間在檢討。</t>
   </si>
   <si>
+    <t>上週教的內容有點忘記，學校實習的部分好像沒有再教或著沒上實習，導致實習的題目都不知道怎麼寫，還有儀器的按鍵功能之類的常識也不是很了解</t>
+  </si>
+  <si>
     <t>張哲銘</t>
   </si>
   <si>
@@ -425,12 +555,18 @@
     <t>107國文統測模擬試題1-38題，第一回英文單字測驗</t>
   </si>
   <si>
+    <t>作業檢討 / 2-6 P.102~P.104 / 3-1 P.112~P.115</t>
+  </si>
+  <si>
     <t>6/12</t>
   </si>
   <si>
     <t>score:20/25，上次回家作業：4/5</t>
   </si>
   <si>
+    <t>(1/6)</t>
+  </si>
+  <si>
     <t>18:10</t>
   </si>
   <si>
@@ -449,6 +585,9 @@
     <t>背第二回英文單字</t>
   </si>
   <si>
+    <t>2-6 學習成效驗收(全)</t>
+  </si>
+  <si>
     <t>作業正確率較低，計算容易出錯，計算能力需要多加強，但課堂中練習題都能夠寫出來</t>
   </si>
   <si>
@@ -464,6 +603,9 @@
     <t>答題狀況佳，正確率佳，上課認真</t>
   </si>
   <si>
+    <t>某些基本觀念沒有搞懂所以導致作業正確率低，在上課時的學習演練基本上都能寫出來，可能需要靠勤練來把正確率拉高，因此這次有出多一點作業</t>
+  </si>
+  <si>
     <t>徐昕語</t>
   </si>
   <si>
@@ -479,9 +621,6 @@
     <t>110學測綜合測驗&amp;考單字</t>
   </si>
   <si>
-    <t>12:00</t>
-  </si>
-  <si>
     <t>110年作文&amp;背#4單字&amp;110學測單字題單字</t>
   </si>
   <si>
@@ -500,7 +639,31 @@
     <t>不太會化簡布林代數式請回家多練習</t>
   </si>
   <si>
-    <t>吳冬羽</t>
+    <t>基本電學複雜電路檢討，重疊定理</t>
+  </si>
+  <si>
+    <t>基本電學複雜電路題目</t>
+  </si>
+  <si>
+    <t>基本觀念不好，有點難進到新進度</t>
+  </si>
+  <si>
+    <t>基本電學戴維寧</t>
+  </si>
+  <si>
+    <t>戴維寧40題</t>
+  </si>
+  <si>
+    <t>學生狀況皆良好,要寫回家作業</t>
+  </si>
+  <si>
+    <t>張新岳</t>
+  </si>
+  <si>
+    <t>數位邏輯綜合模擬測驗+歷屆</t>
+  </si>
+  <si>
+    <t>卡諾圖化簡非常不熟悉，最大項最小項觀念不清楚，需多練習</t>
   </si>
   <si>
     <t>電磁感應，冷次定律</t>
@@ -548,15 +711,24 @@
     <t>檢討回家作業和講義Ch3-3,Ch3-4觀念和習題</t>
   </si>
   <si>
+    <t>三角函數完</t>
+  </si>
+  <si>
     <t>回家作業講義ch2(38/52):73分</t>
   </si>
   <si>
+    <t>考試兩個part 55 80</t>
+  </si>
+  <si>
     <t>18:30</t>
   </si>
   <si>
     <t>09:00</t>
   </si>
   <si>
+    <t>18:40</t>
+  </si>
+  <si>
     <t>20:30</t>
   </si>
   <si>
@@ -567,6 +739,9 @@
   </si>
   <si>
     <t>基本電學講義ch3-1~ch3-4習題</t>
+  </si>
+  <si>
+    <t>考卷剩餘題目+0722考卷</t>
   </si>
   <si>
     <t>電壓電流電阻常常講錯，導致自己有時候在算什麼都不知道，自己講錯之後數值也會跟著帶錯</t>
@@ -577,6 +752,12 @@
 3.做題目容易粗心錯。</t>
   </si>
   <si>
+    <t>三角函數前面重要的餘弦定理和正弦定理要知道使用的時機，算是三角函數重要的章節，針對相關題目練習。另外一些基本的三角函數運算，正負號等等也不要搞錯了。</t>
+  </si>
+  <si>
+    <t>鄭名佑</t>
+  </si>
+  <si>
     <t>2-3 P.69 2-4 P.72~P.79</t>
   </si>
   <si>
@@ -590,6 +771,9 @@
   </si>
   <si>
     <t>他說化任意三角函數為銳角三角函數的部分</t>
+  </si>
+  <si>
+    <t>觀念清楚，卡諾圖化簡偶爾卡頓</t>
   </si>
   <si>
     <t>68分</t>
@@ -1024,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1064,31 +1248,57 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1141,28 +1351,57 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1215,28 +1454,28 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2">
-        <v>80</v>
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1245,6 +1484,274 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -1289,305 +1796,57 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2">
-        <v>60</v>
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>119</v>
+      </c>
+      <c r="H2" t="s">
+        <v>120</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>80703570956550</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2">
-        <v>80703570956550</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1637,31 +1896,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2">
-        <v>80</v>
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="F2">
-        <v>2.08</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1711,31 +1970,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2">
-        <v>80703570956550</v>
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1785,28 +2044,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>128</v>
+      </c>
+      <c r="H2" t="s">
+        <v>129</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1930,31 +2192,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1964,7 +2226,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2004,28 +2266,57 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>109</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3">
+        <v>-9.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2326,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2075,31 +2366,60 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" t="s">
-        <v>111</v>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2152,25 +2472,25 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2179,6 +2499,109 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -2223,215 +2646,25 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5">
-        <v>2.17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I6" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2481,31 +2714,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2515,7 +2745,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2558,25 +2788,173 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5">
+        <v>2.2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2626,28 +3004,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>185</v>
+      </c>
+      <c r="C2">
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2656,6 +3037,502 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2">
+        <v>57.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -2700,25 +3577,25 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
@@ -2726,31 +3603,31 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="C3">
         <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="H3" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="I3" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2758,13 +3635,13 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="C4">
         <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -2773,10 +3650,10 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="H4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
@@ -2787,7 +3664,339 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -2829,31 +4038,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2861,310 +4070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>80703570956550</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3209,228 +4115,28 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2">
-        <v>1.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
-        <v>80703570956550</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4">
-        <v>2.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3480,31 +4186,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2">
-        <v>80703570956550</v>
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3512,7 +4218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -3554,60 +4260,57 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3615,7 +4318,136 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3657,7 +4489,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -3666,15 +4498,18 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
         <v>51</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>52</v>
       </c>
       <c r="I2" t="s">
@@ -3686,9 +4521,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3728,31 +4563,60 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
       </c>
       <c r="C2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>56</v>
       </c>
       <c r="H2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
         <v>57</v>
       </c>
-      <c r="I2" t="s">
-        <v>58</v>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3760,9 +4624,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3802,25 +4666,154 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="F2">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3873,54 +4866,45 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>80703570956550</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/output/學生個別表.xlsx
+++ b/output/學生個別表.xlsx
@@ -32,29 +32,35 @@
     <sheet name="江學甫" sheetId="23" r:id="rId23"/>
     <sheet name="王宥閎" sheetId="24" r:id="rId24"/>
     <sheet name="王祐恩" sheetId="25" r:id="rId25"/>
-    <sheet name="蔡辰哲" sheetId="26" r:id="rId26"/>
-    <sheet name="許語恩" sheetId="27" r:id="rId27"/>
-    <sheet name="謝宜均" sheetId="28" r:id="rId28"/>
-    <sheet name="邱宇綺" sheetId="29" r:id="rId29"/>
-    <sheet name="邱康齊" sheetId="30" r:id="rId30"/>
-    <sheet name="陳冠亦" sheetId="31" r:id="rId31"/>
-    <sheet name="陳冠辰" sheetId="32" r:id="rId32"/>
-    <sheet name="陳宇翔" sheetId="33" r:id="rId33"/>
-    <sheet name="陳昱璇" sheetId="34" r:id="rId34"/>
-    <sheet name="陳泓均" sheetId="35" r:id="rId35"/>
-    <sheet name="陳泓鍇" sheetId="36" r:id="rId36"/>
-    <sheet name="陳致祐" sheetId="37" r:id="rId37"/>
-    <sheet name="陳言珉" sheetId="38" r:id="rId38"/>
-    <sheet name="黃睿心" sheetId="39" r:id="rId39"/>
-    <sheet name="黃紳富" sheetId="40" r:id="rId40"/>
-    <sheet name="黃鈺程" sheetId="41" r:id="rId41"/>
+    <sheet name="莊珺婷" sheetId="26" r:id="rId26"/>
+    <sheet name="葉宗澔" sheetId="27" r:id="rId27"/>
+    <sheet name="蔡辰哲" sheetId="28" r:id="rId28"/>
+    <sheet name="許語恩" sheetId="29" r:id="rId29"/>
+    <sheet name="謝宜均" sheetId="30" r:id="rId30"/>
+    <sheet name="謝芷妍" sheetId="31" r:id="rId31"/>
+    <sheet name="邱宇綺" sheetId="32" r:id="rId32"/>
+    <sheet name="邱康齊" sheetId="33" r:id="rId33"/>
+    <sheet name="鄭名哲" sheetId="34" r:id="rId34"/>
+    <sheet name="陳冠亦" sheetId="35" r:id="rId35"/>
+    <sheet name="陳冠辰" sheetId="36" r:id="rId36"/>
+    <sheet name="陳宇翔" sheetId="37" r:id="rId37"/>
+    <sheet name="陳昱璇" sheetId="38" r:id="rId38"/>
+    <sheet name="陳泓均" sheetId="39" r:id="rId39"/>
+    <sheet name="陳泓鍇" sheetId="40" r:id="rId40"/>
+    <sheet name="陳致祐" sheetId="41" r:id="rId41"/>
+    <sheet name="陳言珉" sheetId="42" r:id="rId42"/>
+    <sheet name="黃僅佑" sheetId="43" r:id="rId43"/>
+    <sheet name="黃睿心" sheetId="44" r:id="rId44"/>
+    <sheet name="黃紳富" sheetId="45" r:id="rId45"/>
+    <sheet name="黃鈺程" sheetId="46" r:id="rId46"/>
+    <sheet name="黃閔詮" sheetId="47" r:id="rId47"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="376">
   <si>
     <t>上課日期</t>
   </si>
@@ -89,12 +95,21 @@
     <t>2024/08/01</t>
   </si>
   <si>
+    <t>2024/08/08</t>
+  </si>
+  <si>
     <t>4-2 平面上的三角函數</t>
   </si>
   <si>
+    <t>第二冊 1/5三角餘弦</t>
+  </si>
+  <si>
     <t>32/37</t>
   </si>
   <si>
+    <t>14/16</t>
+  </si>
+  <si>
     <t>17:40</t>
   </si>
   <si>
@@ -104,9 +119,15 @@
     <t>82 90 91 92 93</t>
   </si>
   <si>
+    <t>p99-102</t>
+  </si>
+  <si>
     <t>有問題都會問</t>
   </si>
   <si>
+    <t>有回應 舉一反三</t>
+  </si>
+  <si>
     <t>常樂</t>
   </si>
   <si>
@@ -116,36 +137,72 @@
     <t>波的行進</t>
   </si>
   <si>
+    <t>第三章主題1~3</t>
+  </si>
+  <si>
+    <t>3/5</t>
+  </si>
+  <si>
     <t>14:45</t>
   </si>
   <si>
+    <t>15:00</t>
+  </si>
+  <si>
     <t>16:45</t>
   </si>
   <si>
+    <t>17:30</t>
+  </si>
+  <si>
     <t>考卷剩下的題目</t>
   </si>
   <si>
+    <t>考卷兩張剩下的題目，講義類題</t>
+  </si>
+  <si>
     <t>有點缺乏回應</t>
   </si>
   <si>
+    <t>很專心，會發問，速度比較快</t>
+  </si>
+  <si>
     <t>羅然</t>
   </si>
   <si>
+    <t>張士庭</t>
+  </si>
+  <si>
     <t>2024/08/02</t>
   </si>
   <si>
+    <t>2024/08/09</t>
+  </si>
+  <si>
     <t>數位邏輯第三單元完</t>
   </si>
   <si>
     <t>電子學第四章 共射極</t>
   </si>
   <si>
+    <t>三角函數基礎複習 / 1-1 P.3~P.10</t>
+  </si>
+  <si>
+    <t>數位邏輯 第三單元完、4-1 ㄧ</t>
+  </si>
+  <si>
     <t>作業分數：75</t>
   </si>
   <si>
     <t>無</t>
   </si>
   <si>
+    <t>他說檔案不見</t>
+  </si>
+  <si>
+    <t>作業50</t>
+  </si>
+  <si>
     <t>14:00</t>
   </si>
   <si>
@@ -164,24 +221,45 @@
     <t>4-2習題</t>
   </si>
   <si>
+    <t>1-1學習成效驗收第3、4、5、6、8、10、11、13、16、17、19題</t>
+  </si>
+  <si>
+    <t>4-1立即練習、課後習題</t>
+  </si>
+  <si>
     <t>有不太確定的部分都會主動提問，3-5比較多邏輯閘互換的題型，有讓他多練習，目前狀況不錯，但寫題的速度可以稍微再快一點</t>
   </si>
   <si>
     <t>內容都能吸收 公式很繁雜需要多熟悉</t>
   </si>
   <si>
+    <t>學習速度蠻快的，計算基礎稍弱，多練習可改善</t>
+  </si>
+  <si>
+    <t>上週作業寫的不太好，花比較多時間訂正跟講解</t>
+  </si>
+  <si>
     <t>陳禎</t>
   </si>
   <si>
     <t>劉冠緯</t>
   </si>
   <si>
+    <t>徐昕語</t>
+  </si>
+  <si>
     <t>基本電學第八章全</t>
   </si>
   <si>
+    <t>基本電學9-1</t>
+  </si>
+  <si>
     <t>回：80    考：75</t>
   </si>
   <si>
+    <t>回：80   考：70、80</t>
+  </si>
+  <si>
     <t>10:00</t>
   </si>
   <si>
@@ -191,43 +269,100 @@
     <t>基本電學第八張考卷，後半選擇</t>
   </si>
   <si>
+    <t>基本電學考卷10～25</t>
+  </si>
+  <si>
     <t>還不錯，但轉換方式還是要記熟</t>
   </si>
   <si>
+    <t>還行,但要記熟公式</t>
+  </si>
+  <si>
     <t>粘耀璟</t>
   </si>
   <si>
     <t>2024/08/03</t>
   </si>
   <si>
+    <t>2024/08/06</t>
+  </si>
+  <si>
+    <t>2024/08/07</t>
+  </si>
+  <si>
     <t>數學：檢討第2單元三角函數考卷及作業、3-1向量及其基本運算</t>
   </si>
   <si>
+    <t>電子學 4-1~4-2 雙極性接面電晶體放大器工作原理&amp;交流等效電路</t>
+  </si>
+  <si>
+    <t>電工機械第五章</t>
+  </si>
+  <si>
     <t>80 70 35 70 95 65 50</t>
   </si>
   <si>
     <t>12:30</t>
   </si>
   <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
     <t>講義第2單元-統測考古題</t>
   </si>
   <si>
+    <t>講義 第3章精選試題30題</t>
+  </si>
+  <si>
+    <t>第五章剩下習題</t>
+  </si>
+  <si>
     <t>上課尚認真，但三角函數單元較不熟練，需多加練習</t>
   </si>
   <si>
+    <t>上課認真，但之前多以公式解題，細節推導部分需另多加理解</t>
+  </si>
+  <si>
+    <t>題目多練錯的題目不要再錯了</t>
+  </si>
+  <si>
     <t>傅俊翔</t>
   </si>
   <si>
+    <t>賴威宏</t>
+  </si>
+  <si>
     <t>數位：作業訂正、4-1完</t>
   </si>
   <si>
     <t>電子學 2-5整流完 濾波到16</t>
   </si>
   <si>
+    <t>基電3-3講解7</t>
+  </si>
+  <si>
+    <t>數位邏輯 4-3重點二</t>
+  </si>
+  <si>
+    <t>作業：73</t>
+  </si>
+  <si>
+    <t>作業：75</t>
+  </si>
+  <si>
     <t>4-1立即練習、綜合模擬測驗</t>
   </si>
   <si>
     <t>精選試題14題</t>
+  </si>
+  <si>
+    <t>3-1試題16-34題</t>
+  </si>
+  <si>
+    <t>4-3立即練習、綜合測驗 共15題</t>
   </si>
   <si>
     <t>作業10題錯三
@@ -238,7 +373,10 @@
 計算部分一樣還ok</t>
   </si>
   <si>
-    <t>2024/08/06</t>
+    <t>回答狀況都ok，計算速度可以再慢慢提升</t>
+  </si>
+  <si>
+    <t>回答狀況良好，寫題速度也ok</t>
   </si>
   <si>
     <t>檢討作業</t>
@@ -250,7 +388,7 @@
     <t>回家作業(3/30):10分</t>
   </si>
   <si>
-    <t>15:00</t>
+    <t>回家作業考卷(3/20):15分</t>
   </si>
   <si>
     <t>17:00</t>
@@ -260,6 +398,9 @@
   </si>
   <si>
     <t>ch3考卷20題</t>
+  </si>
+  <si>
+    <t>考卷選擇26題和計算題10題</t>
   </si>
   <si>
     <t xml:space="preserve">1.態度消極
@@ -269,6 +410,11 @@
 </t>
   </si>
   <si>
+    <t>1.上課會回覆了，但是題型的觀念還是不太會。
+2.回家作業全部猜的，20題只對3題，上課都變成我在講。
+3.已經叮嚀要寫計算過程，一樣不寫。</t>
+  </si>
+  <si>
     <t>林祐玄</t>
   </si>
   <si>
@@ -278,45 +424,66 @@
     <t>數位邏輯第二章</t>
   </si>
   <si>
+    <t>基本電學第三章電路，歷屆統測題</t>
+  </si>
+  <si>
+    <t>70 70</t>
+  </si>
+  <si>
     <t>18:00</t>
   </si>
   <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
     <t>講義選擇</t>
   </si>
   <si>
     <t>第二章題目</t>
   </si>
   <si>
+    <t>基本電學第三章講義基礎題</t>
+  </si>
+  <si>
     <t>還行，要背的內容要記熟</t>
   </si>
   <si>
+    <t>觀念蠻齊全，但計算要加強，多練題目會更熟</t>
+  </si>
+  <si>
     <t>林恩宏</t>
   </si>
   <si>
+    <t>顏廷安</t>
+  </si>
+  <si>
     <t>串並聯</t>
   </si>
   <si>
     <t>電阻串並聯、第一章</t>
   </si>
   <si>
+    <t>節點電壓法</t>
+  </si>
+  <si>
     <t>14:34</t>
   </si>
   <si>
+    <t>17:33</t>
+  </si>
+  <si>
     <t>19:30</t>
   </si>
   <si>
+    <t>19:33</t>
+  </si>
+  <si>
     <t>串並聯電路五題</t>
   </si>
   <si>
     <t>考卷20題</t>
   </si>
   <si>
+    <t>題目20題</t>
+  </si>
+  <si>
     <t>王芃元</t>
   </si>
   <si>
@@ -338,13 +505,16 @@
     <t>基電第四章</t>
   </si>
   <si>
+    <t>基電第四章結點</t>
+  </si>
+  <si>
     <t>80 100 80</t>
   </si>
   <si>
     <t>90*4</t>
   </si>
   <si>
-    <t>17:30</t>
+    <t>14:30</t>
   </si>
   <si>
     <t>基本電學考卷，講義選擇</t>
@@ -353,43 +523,88 @@
     <t>基地考卷</t>
   </si>
   <si>
+    <t>基電考卷</t>
+  </si>
+  <si>
     <t>還不錯，電路轉換要背熟</t>
   </si>
   <si>
     <t>還行，計算錯誤要注意</t>
   </si>
   <si>
+    <t>公式要背熟</t>
+  </si>
+  <si>
     <t>基本電學複雜進度</t>
   </si>
   <si>
+    <t>電工第一章</t>
+  </si>
+  <si>
     <t>70,86</t>
   </si>
   <si>
+    <t>96/60</t>
+  </si>
+  <si>
+    <t>0805戴維寧考卷 0722電工考卷</t>
+  </si>
+  <si>
     <t>題目理解很好，計算速度快，有時會粗心</t>
   </si>
   <si>
-    <t>顏廷安</t>
+    <t>非常好舉一反三</t>
+  </si>
+  <si>
+    <t>何宥嶙</t>
   </si>
   <si>
     <t>基本電學複雜電路</t>
+  </si>
+  <si>
+    <t>戴維寧進度</t>
+  </si>
+  <si>
+    <t>基礎電路分數50分</t>
   </si>
   <si>
     <t xml:space="preserve">
 基本電學複雜電路題目</t>
   </si>
   <si>
+    <t>戴維寧剩下習題</t>
+  </si>
+  <si>
     <t>題目寫比較慢，但基電能力不錯</t>
   </si>
   <si>
+    <t>新題目比較多要多練習</t>
+  </si>
+  <si>
     <t>基本電學3-1</t>
   </si>
   <si>
+    <t>數學三角函數角度徑度換算</t>
+  </si>
+  <si>
+    <t>數80 四則運算60</t>
+  </si>
+  <si>
+    <t>16:39</t>
+  </si>
+  <si>
     <t>機電考卷選擇10題</t>
   </si>
   <si>
+    <t>講義練習題</t>
+  </si>
+  <si>
     <t>計算速度太慢，需要再加強</t>
   </si>
   <si>
+    <t>計算速度跟準確度要在加強</t>
+  </si>
+  <si>
     <t>數學第三章</t>
   </si>
   <si>
@@ -399,33 +614,54 @@
     <t>數位邏輯地二張</t>
   </si>
   <si>
+    <t>數學第四章</t>
+  </si>
+  <si>
     <t>沒寫作業</t>
   </si>
   <si>
+    <t>50,60,50</t>
+  </si>
+  <si>
     <t>第三章歷屆</t>
   </si>
   <si>
     <t xml:space="preserve"> 3-3立即練習</t>
   </si>
   <si>
+    <t>基本電學第一章基礎題</t>
+  </si>
+  <si>
     <t>計算能力要加強，算式列的出來但會算錯</t>
   </si>
   <si>
+    <t>基本題型要再加強，計算能力要再練習</t>
+  </si>
+  <si>
     <t>胡之耀</t>
   </si>
   <si>
     <t>電子學第三章</t>
   </si>
   <si>
+    <t>電子學第三章完</t>
+  </si>
+  <si>
     <t>56分</t>
   </si>
   <si>
     <t>第三章精選試題25題</t>
   </si>
   <si>
+    <t>電子學講義第三章題目</t>
+  </si>
+  <si>
     <t>狀況很好</t>
   </si>
   <si>
+    <t>基本觀念不太熟，要多複習寫題目</t>
+  </si>
+  <si>
     <t>檢討運動學考卷</t>
   </si>
   <si>
@@ -444,24 +680,33 @@
     <t>檢討作業+2-4</t>
   </si>
   <si>
+    <t>數學第一冊2-4到最後一題</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
     <t>16:05</t>
   </si>
   <si>
     <t>時力測驗 + 學習驗收</t>
   </si>
   <si>
+    <t>2-3成效驗收</t>
+  </si>
+  <si>
     <t>認真，會根據問題思辯。有自己的解題思路</t>
   </si>
   <si>
+    <t>回答跟寫題目的狀況良好</t>
+  </si>
+  <si>
     <t>張孟綺</t>
   </si>
   <si>
     <t>數位邏輯4-3，4-4</t>
   </si>
   <si>
-    <t>08:00</t>
-  </si>
-  <si>
     <t>第四章綜合模擬試題+歷屆</t>
   </si>
   <si>
@@ -504,18 +749,27 @@
     <t xml:space="preserve">數位邏輯複習5-1 5-2 </t>
   </si>
   <si>
+    <t>3-3 KVL 電壓定律 檢討作業</t>
+  </si>
+  <si>
     <t>二極體練習卷，第二章課本歷屆</t>
   </si>
   <si>
     <t>5-2 精選範例 學生演練 9~14</t>
   </si>
   <si>
+    <t>3-3 hot試題 4~12</t>
+  </si>
+  <si>
     <t>觀念的部分幾乎是忘光，題型基本上全部都要重新講一次，複習的階段比較像是幫補充之前的內容，或是再更深入的講一下，但今天上課時問的許多基礎觀念都答不出來，還有許多名詞只知道英文代號但不知道代表的意義(只會算但請他解釋卻沒辦法，或著題目如果寫中文可能就不知道再指什麼)，如果是實習的題目就可能會答不出來，理論的部分特別弱，需要加強，BJT的部分還沒複習到，但是是下一章而且內容相關，但也是基本觀念都忘記。花很多時間在檢討。</t>
   </si>
   <si>
     <t>上週教的內容有點忘記，學校實習的部分好像沒有再教或著沒上實習，導致實習的題目都不知道怎麼寫，還有儀器的按鍵功能之類的常識也不是很了解</t>
   </si>
   <si>
+    <t>以前教過的內容基本上是忘光了，節點跟密爾們會搞錯，戴維寧分析時算的方法也不知道自己在寫什麼，所以以前學過的不是忘記，就是混再一起寫，解題的步驟也是幾乎不記得，需要一提一題帶著寫，後面的單元很多都是連貫的，往後問也答不出基本的觀念，考過了就忘記了，這樣沒辦法考大範圍的考試(統測、模擬考)</t>
+  </si>
+  <si>
     <t>張哲銘</t>
   </si>
   <si>
@@ -528,9 +782,42 @@
     <t>還行，但要被的部分要記熟</t>
   </si>
   <si>
+    <t>第三章主題1~主題3</t>
+  </si>
+  <si>
+    <t>4/5</t>
+  </si>
+  <si>
+    <t>一直想睡覺，比較不專心，題目寫得稍慢</t>
+  </si>
+  <si>
+    <t>分析化學第一、二章</t>
+  </si>
+  <si>
+    <t>化工裝置第二章2-1~2-4</t>
+  </si>
+  <si>
+    <t>分析化學第一、二章考卷練習</t>
+  </si>
+  <si>
+    <t>預習化工裝置2-5~2-6</t>
+  </si>
+  <si>
+    <t>回答問題 有時觀念沒有很清楚，會陷入毫無頭緒的狀態中。</t>
+  </si>
+  <si>
+    <t>學校的裝置老師大多細節未提，對於多處觀念細節無印象，以題目多練習的方式來增強記憶</t>
+  </si>
+  <si>
+    <t>陳柏宇</t>
+  </si>
+  <si>
     <t>基本電學4-1~4-3</t>
   </si>
   <si>
+    <t>複習第二章</t>
+  </si>
+  <si>
     <t>基礎4-1~4-3、進階4-1~4-2</t>
   </si>
   <si>
@@ -540,6 +827,9 @@
     <t>陳亮臣</t>
   </si>
   <si>
+    <t>許景崴</t>
+  </si>
+  <si>
     <t>作業檢討 / 三角函數P.91~P.94 P.98~P.102</t>
   </si>
   <si>
@@ -558,6 +848,18 @@
     <t>作業檢討 / 2-6 P.102~P.104 / 3-1 P.112~P.115</t>
   </si>
   <si>
+    <t>歷史第二章</t>
+  </si>
+  <si>
+    <t>電子學ch3-1,3-2</t>
+  </si>
+  <si>
+    <t>國文112題目</t>
+  </si>
+  <si>
+    <t>數位邏輯ch4-1～4-2</t>
+  </si>
+  <si>
     <t>6/12</t>
   </si>
   <si>
@@ -567,9 +869,24 @@
     <t>(1/6)</t>
   </si>
   <si>
+    <t>4/5+17/22</t>
+  </si>
+  <si>
+    <t>score:9/9（20分鐘），上次回家作業：11/15</t>
+  </si>
+  <si>
+    <t>13:32</t>
+  </si>
+  <si>
     <t>18:10</t>
   </si>
   <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>15:40</t>
+  </si>
+  <si>
     <t>2-5 實力測驗第1、5、6、8、9、10題</t>
   </si>
   <si>
@@ -588,6 +905,18 @@
     <t>2-6 學習成效驗收(全)</t>
   </si>
   <si>
+    <t>歷史第二章+第一章</t>
+  </si>
+  <si>
+    <t>ch3-1、3-2試題*50</t>
+  </si>
+  <si>
+    <t>完成112剩餘題目（不加作文）+複習上課檢討的題目</t>
+  </si>
+  <si>
+    <t>ch4-1試題*5</t>
+  </si>
+  <si>
     <t>作業正確率較低，計算容易出錯，計算能力需要多加強，但課堂中練習題都能夠寫出來</t>
   </si>
   <si>
@@ -606,7 +935,16 @@
     <t>某些基本觀念沒有搞懂所以導致作業正確率低，在上課時的學習演練基本上都能寫出來，可能需要靠勤練來把正確率拉高，因此這次有出多一點作業</t>
   </si>
   <si>
-    <t>徐昕語</t>
+    <t>上課認真、積極配合</t>
+  </si>
+  <si>
+    <t>基本的BJT結構跟解題步驟都來記得</t>
+  </si>
+  <si>
+    <t>上課認真積極</t>
+  </si>
+  <si>
+    <t>手動化簡需要記熟原理</t>
   </si>
   <si>
     <t>鄭伊育</t>
@@ -630,15 +968,36 @@
     <t>吳若水</t>
   </si>
   <si>
+    <t>1-3~1-4主題3</t>
+  </si>
+  <si>
+    <t>考卷一張，1-3講義剩下的題目</t>
+  </si>
+  <si>
+    <t>很專心，理解很快</t>
+  </si>
+  <si>
     <t>數位邏輯3-1~3-4</t>
   </si>
   <si>
+    <t>數位邏輯3-5 4-1</t>
+  </si>
+  <si>
+    <t>85分 78分</t>
+  </si>
+  <si>
     <t>綜合模擬測驗3-1~3-4</t>
   </si>
   <si>
+    <t>一二章習題+第三章全</t>
+  </si>
+  <si>
     <t>不太會化簡布林代數式請回家多練習</t>
   </si>
   <si>
+    <t>第一章多背，基礎閘偶爾看錯</t>
+  </si>
+  <si>
     <t>基本電學複雜電路檢討，重疊定理</t>
   </si>
   <si>
@@ -648,6 +1007,21 @@
     <t>基本觀念不好，有點難進到新進度</t>
   </si>
   <si>
+    <t>力學2-1~2-3</t>
+  </si>
+  <si>
+    <t>16:10</t>
+  </si>
+  <si>
+    <t>2-1~2-3</t>
+  </si>
+  <si>
+    <t>三角函數要背</t>
+  </si>
+  <si>
+    <t>許永暉</t>
+  </si>
+  <si>
     <t>基本電學戴維寧</t>
   </si>
   <si>
@@ -675,9 +1049,6 @@
     <t>下禮拜考第二次物理第二章</t>
   </si>
   <si>
-    <t>13:00</t>
-  </si>
-  <si>
     <t>12:45</t>
   </si>
   <si>
@@ -714,12 +1085,21 @@
     <t>三角函數完</t>
   </si>
   <si>
+    <t>電子學第二章 整流電路</t>
+  </si>
+  <si>
+    <t>檢討回家作業，講義Ch3-5~ch3-7觀念和習題</t>
+  </si>
+  <si>
     <t>回家作業講義ch2(38/52):73分</t>
   </si>
   <si>
     <t>考試兩個part 55 80</t>
   </si>
   <si>
+    <t>回家作業分數(31/38):81.5分</t>
+  </si>
+  <si>
     <t>18:30</t>
   </si>
   <si>
@@ -742,6 +1122,12 @@
   </si>
   <si>
     <t>考卷剩餘題目+0722考卷</t>
+  </si>
+  <si>
+    <t>2-6 同步練習23 隨堂練習 歷屆試題</t>
+  </si>
+  <si>
+    <t>歷屆試題ch3-5~ch3-6，統合模擬測驗ch3-1~ch3-6</t>
   </si>
   <si>
     <t>電壓電流電阻常常講錯，導致自己有時候在算什麼都不知道，自己講錯之後數值也會跟著帶錯</t>
@@ -755,6 +1141,13 @@
     <t>三角函數前面重要的餘弦定理和正弦定理要知道使用的時機，算是三角函數重要的章節，針對相關題目練習。另外一些基本的三角函數運算，正負號等等也不要搞錯了。</t>
   </si>
   <si>
+    <t>狀況比上週好許多，這週問的問題和題目的解題上反映有變快，沒有向上週依樣什麼都說不出來，可以的話繼續保持，會對自己比較有幫助</t>
+  </si>
+  <si>
+    <t>1.基本概念都能理解，比較難的題目只有稍微提醒一下就會了。
+2.對於較新的題目比較不會。</t>
+  </si>
+  <si>
     <t>鄭名佑</t>
   </si>
   <si>
@@ -764,19 +1157,50 @@
     <t>他說草稿紙不見了，所以請他下次補</t>
   </si>
   <si>
-    <t>14:30</t>
-  </si>
-  <si>
     <t>2-4學習成效驗收第2、3、4、5、7-1題</t>
   </si>
   <si>
     <t>他說化任意三角函數為銳角三角函數的部分</t>
   </si>
   <si>
+    <t>檢討回家作業和講義ch3-6</t>
+  </si>
+  <si>
+    <t>回家作業考卷(34/50):68分</t>
+  </si>
+  <si>
+    <t>基本電學講義統合模擬測驗1~33題</t>
+  </si>
+  <si>
+    <t>1.串並聯電路的題目還不太會。
+2.多個電源的電路不太會解題。</t>
+  </si>
+  <si>
+    <t>考電子學2-1~2-3,教電子學3-1完</t>
+  </si>
+  <si>
+    <t>100,85,65</t>
+  </si>
+  <si>
+    <t>電子學第三章講義題目</t>
+  </si>
+  <si>
+    <t>能快速吸收新觀念，多寫題目可加深熟練度</t>
+  </si>
+  <si>
     <t>觀念清楚，卡諾圖化簡偶爾卡頓</t>
   </si>
   <si>
     <t>68分</t>
+  </si>
+  <si>
+    <t>力學第一章+第二章一點點</t>
+  </si>
+  <si>
+    <t>力學第一章</t>
+  </si>
+  <si>
+    <t>精神不錯 棒</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1177,28 +1601,57 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E3" t="s">
         <v>17</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1207,6 +1660,267 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4">
+        <v>7585858050</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4">
+        <v>901007060</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -1248,57 +1962,60 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +2023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -1351,57 +2068,57 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
+        <v>163</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1409,9 +2126,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1451,31 +2168,57 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3">
+        <v>2.6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1483,9 +2226,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1528,28 +2271,129 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I6" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1557,78 +2401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -1673,180 +2446,86 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2">
-        <v>60</v>
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>193</v>
+      </c>
+      <c r="H2" t="s">
+        <v>195</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>191</v>
+      </c>
+      <c r="C4">
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>194</v>
+      </c>
+      <c r="H4" t="s">
+        <v>196</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1899,28 +2578,28 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1970,31 +2649,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +2683,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2044,31 +2723,60 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="C2">
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="F2">
         <v>2.1</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +2786,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2118,31 +2826,60 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>68.59999999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2192,31 +2929,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2226,7 +2963,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2269,54 +3006,77 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="C2">
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="C3">
         <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="F3">
-        <v>-9.5</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2369,57 +3129,57 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2428,77 +3188,6 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -2540,60 +3229,189 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>77</v>
+      </c>
+      <c r="C3">
+        <v>7585858050</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="I3" t="s">
-        <v>151</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I4" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2643,28 +3461,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="F2">
         <v>0.5</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2714,28 +3532,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>237</v>
+      </c>
+      <c r="C2" t="s">
+        <v>238</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2744,370 +3565,6 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H3" t="s">
-        <v>176</v>
-      </c>
-      <c r="I3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5">
-        <v>2.2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -3149,60 +3606,644 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
+        <v>240</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>247</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>248</v>
+      </c>
+      <c r="C3">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>254</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="H3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
+      <c r="B4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5">
+        <v>2.2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" t="s">
+        <v>285</v>
+      </c>
+      <c r="I5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6" t="s">
+        <v>286</v>
+      </c>
+      <c r="I6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H7" t="s">
+        <v>287</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8">
+        <v>2.2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>278</v>
+      </c>
+      <c r="H8" t="s">
+        <v>288</v>
+      </c>
+      <c r="I8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>279</v>
+      </c>
+      <c r="H9" t="s">
+        <v>289</v>
+      </c>
+      <c r="I9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10">
+        <v>2.2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>280</v>
+      </c>
+      <c r="H10" t="s">
+        <v>290</v>
+      </c>
+      <c r="I10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>281</v>
+      </c>
+      <c r="H11" t="s">
+        <v>291</v>
+      </c>
+      <c r="I11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3252,31 +4293,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="C2">
-        <v>57.5</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="H2" t="s">
-        <v>194</v>
+        <v>297</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3326,31 +4367,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
+        <v>299</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>196</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>197</v>
+        <v>301</v>
       </c>
       <c r="I2" t="s">
-        <v>198</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3359,6 +4397,106 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3400,31 +4538,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
+        <v>309</v>
+      </c>
+      <c r="C2">
+        <v>57.5</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>196</v>
+        <v>310</v>
       </c>
       <c r="H2" t="s">
-        <v>197</v>
+        <v>311</v>
       </c>
       <c r="I2" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3432,9 +4570,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3474,57 +4612,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>312</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>313</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>315</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>199</v>
-      </c>
-      <c r="H3" t="s">
-        <v>200</v>
-      </c>
-      <c r="I3" t="s">
-        <v>135</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -3532,9 +4641,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3574,89 +4683,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>317</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>318</v>
       </c>
       <c r="H2" t="s">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H3" t="s">
-        <v>209</v>
-      </c>
-      <c r="I3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4">
-        <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H4" t="s">
-        <v>210</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3664,9 +4715,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3706,157 +4757,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>317</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>318</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>319</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" t="s">
-        <v>53</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3906,89 +4831,83 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="H2" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" t="s">
-        <v>217</v>
+        <v>211</v>
+      </c>
+      <c r="C3">
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c r="H3" t="s">
-        <v>228</v>
+        <v>322</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" t="s">
-        <v>218</v>
+        <v>248</v>
+      </c>
+      <c r="C4">
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H4" t="s">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3997,6 +4916,660 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H2" t="s">
+        <v>329</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H4" t="s">
+        <v>331</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4">
+        <v>7585858050</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>350</v>
+      </c>
+      <c r="H4" t="s">
+        <v>355</v>
+      </c>
+      <c r="I4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>351</v>
+      </c>
+      <c r="H5" t="s">
+        <v>356</v>
+      </c>
+      <c r="I5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>352</v>
+      </c>
+      <c r="H6" t="s">
+        <v>357</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -4038,31 +5611,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>359</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>360</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>1.5</v>
       </c>
       <c r="G2" t="s">
-        <v>234</v>
+        <v>361</v>
       </c>
       <c r="H2" t="s">
-        <v>235</v>
+        <v>362</v>
       </c>
       <c r="I2" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4070,7 +5643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -4112,31 +5685,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>363</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>364</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>196</v>
+        <v>365</v>
       </c>
       <c r="H2" t="s">
-        <v>197</v>
+        <v>366</v>
       </c>
       <c r="I2" t="s">
-        <v>198</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4144,7 +5717,394 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" t="s">
+        <v>371</v>
+      </c>
+      <c r="I3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>7585858050</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -4186,31 +6146,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -4218,107 +6175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" t="s">
-        <v>236</v>
-      </c>
-      <c r="I3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -4360,54 +6217,57 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>77</v>
+      </c>
+      <c r="C3">
+        <v>7585858050</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
         <v>89</v>
@@ -4415,31 +6275,31 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>67.5</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4447,9 +6307,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4489,31 +6349,118 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
         <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>50</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4521,9 +6468,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4566,57 +6513,83 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2">
-        <v>70</v>
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4624,9 +6597,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4666,57 +6639,83 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
+        <v>116</v>
+      </c>
+      <c r="C2">
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>121</v>
+      </c>
+      <c r="H2" t="s">
+        <v>124</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4724,9 +6723,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4766,145 +6765,71 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>2.2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="F3">
         <v>1.5</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/output/學生個別表.xlsx
+++ b/output/學生個別表.xlsx
@@ -30,37 +30,40 @@
     <sheet name="林楷哲" sheetId="21" r:id="rId21"/>
     <sheet name="江嘉祐" sheetId="22" r:id="rId22"/>
     <sheet name="江學甫" sheetId="23" r:id="rId23"/>
-    <sheet name="王宥閎" sheetId="24" r:id="rId24"/>
-    <sheet name="王祐恩" sheetId="25" r:id="rId25"/>
-    <sheet name="莊珺婷" sheetId="26" r:id="rId26"/>
-    <sheet name="葉宗澔" sheetId="27" r:id="rId27"/>
-    <sheet name="蔡辰哲" sheetId="28" r:id="rId28"/>
-    <sheet name="許語恩" sheetId="29" r:id="rId29"/>
-    <sheet name="謝宜均" sheetId="30" r:id="rId30"/>
-    <sheet name="謝芷妍" sheetId="31" r:id="rId31"/>
-    <sheet name="邱宇綺" sheetId="32" r:id="rId32"/>
-    <sheet name="邱康齊" sheetId="33" r:id="rId33"/>
-    <sheet name="鄭名哲" sheetId="34" r:id="rId34"/>
-    <sheet name="陳冠亦" sheetId="35" r:id="rId35"/>
-    <sheet name="陳冠辰" sheetId="36" r:id="rId36"/>
-    <sheet name="陳宇翔" sheetId="37" r:id="rId37"/>
-    <sheet name="陳昱璇" sheetId="38" r:id="rId38"/>
-    <sheet name="陳泓均" sheetId="39" r:id="rId39"/>
-    <sheet name="陳泓鍇" sheetId="40" r:id="rId40"/>
-    <sheet name="陳致祐" sheetId="41" r:id="rId41"/>
-    <sheet name="陳言珉" sheetId="42" r:id="rId42"/>
-    <sheet name="黃僅佑" sheetId="43" r:id="rId43"/>
-    <sheet name="黃睿心" sheetId="44" r:id="rId44"/>
-    <sheet name="黃紳富" sheetId="45" r:id="rId45"/>
-    <sheet name="黃鈺程" sheetId="46" r:id="rId46"/>
-    <sheet name="黃閔詮" sheetId="47" r:id="rId47"/>
+    <sheet name="江洧鋐" sheetId="24" r:id="rId24"/>
+    <sheet name="王宥閎" sheetId="25" r:id="rId25"/>
+    <sheet name="王祐恩" sheetId="26" r:id="rId26"/>
+    <sheet name="莊珺婷" sheetId="27" r:id="rId27"/>
+    <sheet name="葉宗澔" sheetId="28" r:id="rId28"/>
+    <sheet name="蔡辰哲" sheetId="29" r:id="rId29"/>
+    <sheet name="蔡辰澤" sheetId="30" r:id="rId30"/>
+    <sheet name="蔣德勳" sheetId="31" r:id="rId31"/>
+    <sheet name="許語恩" sheetId="32" r:id="rId32"/>
+    <sheet name="謝宜均" sheetId="33" r:id="rId33"/>
+    <sheet name="謝芷妍" sheetId="34" r:id="rId34"/>
+    <sheet name="邱宇綺" sheetId="35" r:id="rId35"/>
+    <sheet name="邱康齊" sheetId="36" r:id="rId36"/>
+    <sheet name="鄭名哲" sheetId="37" r:id="rId37"/>
+    <sheet name="陳冠亦" sheetId="38" r:id="rId38"/>
+    <sheet name="陳冠辰" sheetId="39" r:id="rId39"/>
+    <sheet name="陳宇翔" sheetId="40" r:id="rId40"/>
+    <sheet name="陳昱璇" sheetId="41" r:id="rId41"/>
+    <sheet name="陳泓均" sheetId="42" r:id="rId42"/>
+    <sheet name="陳泓鍇" sheetId="43" r:id="rId43"/>
+    <sheet name="陳致祐" sheetId="44" r:id="rId44"/>
+    <sheet name="陳言珉" sheetId="45" r:id="rId45"/>
+    <sheet name="黃僅佑" sheetId="46" r:id="rId46"/>
+    <sheet name="黃睿心" sheetId="47" r:id="rId47"/>
+    <sheet name="黃紳富" sheetId="48" r:id="rId48"/>
+    <sheet name="黃鈺程" sheetId="49" r:id="rId49"/>
+    <sheet name="黃閔詮" sheetId="50" r:id="rId50"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="550">
   <si>
     <t>上課日期</t>
   </si>
@@ -134,15 +137,24 @@
     <t>2024/08/05</t>
   </si>
   <si>
+    <t>2024/08/12</t>
+  </si>
+  <si>
     <t>波的行進</t>
   </si>
   <si>
     <t>第三章主題1~3</t>
   </si>
   <si>
+    <t>光的波動微粒說、考第三章</t>
+  </si>
+  <si>
     <t>3/5</t>
   </si>
   <si>
+    <t>59分</t>
+  </si>
+  <si>
     <t>14:45</t>
   </si>
   <si>
@@ -155,18 +167,27 @@
     <t>17:30</t>
   </si>
   <si>
+    <t>17:00</t>
+  </si>
+  <si>
     <t>考卷剩下的題目</t>
   </si>
   <si>
     <t>考卷兩張剩下的題目，講義類題</t>
   </si>
   <si>
+    <t>考卷剩下題目、講義類題</t>
+  </si>
+  <si>
     <t>有點缺乏回應</t>
   </si>
   <si>
     <t>很專心，會發問，速度比較快</t>
   </si>
   <si>
+    <t>專心聽但少回答問題</t>
+  </si>
+  <si>
     <t>羅然</t>
   </si>
   <si>
@@ -179,6 +200,9 @@
     <t>2024/08/09</t>
   </si>
   <si>
+    <t>2024/08/13</t>
+  </si>
+  <si>
     <t>數位邏輯第三單元完</t>
   </si>
   <si>
@@ -191,6 +215,9 @@
     <t>數位邏輯 第三單元完、4-1 ㄧ</t>
   </si>
   <si>
+    <t>電子學共集極電路</t>
+  </si>
+  <si>
     <t>作業分數：75</t>
   </si>
   <si>
@@ -227,6 +254,9 @@
     <t>4-1立即練習、課後習題</t>
   </si>
   <si>
+    <t>考卷習題 講義習題 全</t>
+  </si>
+  <si>
     <t>有不太確定的部分都會主動提問，3-5比較多邏輯閘互換的題型，有讓他多練習，目前狀況不錯，但寫題的速度可以稍微再快一點</t>
   </si>
   <si>
@@ -239,6 +269,9 @@
     <t>上週作業寫的不太好，花比較多時間訂正跟講解</t>
   </si>
   <si>
+    <t>能夠自己把完整過程寫出來</t>
+  </si>
+  <si>
     <t>陳禎</t>
   </si>
   <si>
@@ -254,12 +287,18 @@
     <t>基本電學9-1</t>
   </si>
   <si>
+    <t>基本電學9-2</t>
+  </si>
+  <si>
     <t>回：80    考：75</t>
   </si>
   <si>
     <t>回：80   考：70、80</t>
   </si>
   <si>
+    <t>回：70  考：80</t>
+  </si>
+  <si>
     <t>10:00</t>
   </si>
   <si>
@@ -272,12 +311,18 @@
     <t>基本電學考卷10～25</t>
   </si>
   <si>
+    <t>基本電學9-1、9-2考卷</t>
+  </si>
+  <si>
     <t>還不錯，但轉換方式還是要記熟</t>
   </si>
   <si>
     <t>還行,但要記熟公式</t>
   </si>
   <si>
+    <t>還行，但轉換的公式與定義要記熟</t>
+  </si>
+  <si>
     <t>粘耀璟</t>
   </si>
   <si>
@@ -290,6 +335,9 @@
     <t>2024/08/07</t>
   </si>
   <si>
+    <t>2024/08/10</t>
+  </si>
+  <si>
     <t>數學：檢討第2單元三角函數考卷及作業、3-1向量及其基本運算</t>
   </si>
   <si>
@@ -299,9 +347,24 @@
     <t>電工機械第五章</t>
   </si>
   <si>
+    <t>節點電壓法</t>
+  </si>
+  <si>
+    <t>數學：檢討考卷及作業、第3單元 3-1向量基本運算~3-2向量內積</t>
+  </si>
+  <si>
+    <t>電子學：4-4共基極放大電路 ~ 4-5共集極放大電路 (第4章完)</t>
+  </si>
+  <si>
     <t>80 70 35 70 95 65 50</t>
   </si>
   <si>
+    <t>75、95、40、75、55(補考75)、50</t>
+  </si>
+  <si>
+    <t>90分</t>
+  </si>
+  <si>
     <t>12:30</t>
   </si>
   <si>
@@ -320,6 +383,15 @@
     <t>第五章剩下習題</t>
   </si>
   <si>
+    <t>課本+考卷</t>
+  </si>
+  <si>
+    <t>講義3-1及3-2段落測驗</t>
+  </si>
+  <si>
+    <t>講義第4章 精選試題20題</t>
+  </si>
+  <si>
     <t>上課尚認真，但三角函數單元較不熟練，需多加練習</t>
   </si>
   <si>
@@ -329,12 +401,24 @@
     <t>題目多練錯的題目不要再錯了</t>
   </si>
   <si>
+    <t>課後會主動發問，多練習寫題目問題不大</t>
+  </si>
+  <si>
+    <t>三角函數問題較多，向量問題較少，考試及複習將穿插三角函數題目以做練習</t>
+  </si>
+  <si>
+    <t>上課認真，筆記、計算積極</t>
+  </si>
+  <si>
     <t>傅俊翔</t>
   </si>
   <si>
     <t>賴威宏</t>
   </si>
   <si>
+    <t>曾浚傑</t>
+  </si>
+  <si>
     <t>數位：作業訂正、4-1完</t>
   </si>
   <si>
@@ -347,12 +431,21 @@
     <t>數位邏輯 4-3重點二</t>
   </si>
   <si>
+    <t>數學2-4、2-5</t>
+  </si>
+  <si>
+    <t>電子學 2-6 例題24完</t>
+  </si>
+  <si>
     <t>作業：73</t>
   </si>
   <si>
     <t>作業：75</t>
   </si>
   <si>
+    <t>作業 57</t>
+  </si>
+  <si>
     <t>4-1立即練習、綜合模擬測驗</t>
   </si>
   <si>
@@ -363,6 +456,12 @@
   </si>
   <si>
     <t>4-3立即練習、綜合測驗 共15題</t>
+  </si>
+  <si>
+    <t>講義習題</t>
+  </si>
+  <si>
+    <t>第二單元精選試題 15題</t>
   </si>
   <si>
     <t>作業10題錯三
@@ -379,9 +478,21 @@
     <t>回答狀況良好，寫題速度也ok</t>
   </si>
   <si>
+    <t>作業只完成一半，未參與考試，上課進度理解沒問題</t>
+  </si>
+  <si>
+    <t>第二單元的公式多 容易搞混，需要多練習，計算速度也可以再提升</t>
+  </si>
+  <si>
+    <t>黃瑜富</t>
+  </si>
+  <si>
     <t>檢討作業</t>
   </si>
   <si>
+    <t>檢討作業和補寫回家作業</t>
+  </si>
+  <si>
     <t>回家作業分數(共20題，沒寫10題)(4/20)：20分</t>
   </si>
   <si>
@@ -391,7 +502,7 @@
     <t>回家作業考卷(3/20):15分</t>
   </si>
   <si>
-    <t>17:00</t>
+    <t>作業沒寫</t>
   </si>
   <si>
     <t>統合模擬測驗25題(26-50)</t>
@@ -401,6 +512,9 @@
   </si>
   <si>
     <t>考卷選擇26題和計算題10題</t>
+  </si>
+  <si>
+    <t>計算題考卷4題</t>
   </si>
   <si>
     <t xml:space="preserve">1.態度消極
@@ -415,6 +529,13 @@
 3.已經叮嚀要寫計算過程，一樣不寫。</t>
   </si>
   <si>
+    <t xml:space="preserve">1.回家作業計算題沒寫，選擇題叫他拍答案給我，拍給我之前先全部猜完了。
+2.看到題目只會說不會，怎麼解都不想。
+3.分數和小數的運算不會算。
+4.題目沒有給元件極性就不會看誰是電壓升，誰是電壓降。
+</t>
+  </si>
+  <si>
     <t>林祐玄</t>
   </si>
   <si>
@@ -427,9 +548,21 @@
     <t>基本電學第三章電路，歷屆統測題</t>
   </si>
   <si>
+    <t>電子學第一章</t>
+  </si>
+  <si>
+    <t>基電節點</t>
+  </si>
+  <si>
     <t>70 70</t>
   </si>
   <si>
+    <t>90分  60分</t>
+  </si>
+  <si>
+    <t>70分 50分</t>
+  </si>
+  <si>
     <t>18:00</t>
   </si>
   <si>
@@ -442,12 +575,24 @@
     <t>基本電學第三章講義基礎題</t>
   </si>
   <si>
+    <t>20題</t>
+  </si>
+  <si>
+    <t>前20題</t>
+  </si>
+  <si>
+    <t>基電考卷後面選擇</t>
+  </si>
+  <si>
     <t>還行，要背的內容要記熟</t>
   </si>
   <si>
     <t>觀念蠻齊全，但計算要加強，多練題目會更熟</t>
   </si>
   <si>
+    <t>還行，公式不熟悉</t>
+  </si>
+  <si>
     <t>林恩宏</t>
   </si>
   <si>
@@ -460,7 +605,10 @@
     <t>電阻串並聯、第一章</t>
   </si>
   <si>
-    <t>節點電壓法</t>
+    <t>節點、迴路</t>
+  </si>
+  <si>
+    <t>回家作業20題錯5題</t>
   </si>
   <si>
     <t>14:34</t>
@@ -484,16 +632,34 @@
     <t>題目20題</t>
   </si>
   <si>
+    <t>有進步  繼續加油</t>
+  </si>
+  <si>
     <t>王芃元</t>
   </si>
   <si>
     <t>程式設計第四章 判斷及迴圈</t>
   </si>
   <si>
+    <t>程式設計 指標及陣列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">程式設計 變數及判斷 80分 </t>
+  </si>
+  <si>
     <t>13:30</t>
   </si>
   <si>
     <t>吸收狀況良好，練習的題目量拉上去就會熟練</t>
+  </si>
+  <si>
+    <t>吸收狀況佳</t>
+  </si>
+  <si>
+    <t>認真發問，問的問題都有水準</t>
+  </si>
+  <si>
+    <t>上課認真，積極筆記、計算，並提出疑問</t>
   </si>
   <si>
     <t>賴聖元</t>
@@ -587,6 +753,9 @@
     <t>數學三角函數角度徑度換算</t>
   </si>
   <si>
+    <t>基本電學並聯</t>
+  </si>
+  <si>
     <t>數80 四則運算60</t>
   </si>
   <si>
@@ -599,12 +768,18 @@
     <t>講義練習題</t>
   </si>
   <si>
+    <t>基電考卷20題</t>
+  </si>
+  <si>
     <t>計算速度太慢，需要再加強</t>
   </si>
   <si>
     <t>計算速度跟準確度要在加強</t>
   </si>
   <si>
+    <t>計算太容易出錯了</t>
+  </si>
+  <si>
     <t>數學第三章</t>
   </si>
   <si>
@@ -617,12 +792,24 @@
     <t>數學第四章</t>
   </si>
   <si>
+    <t>60分</t>
+  </si>
+  <si>
     <t>沒寫作業</t>
   </si>
   <si>
     <t>50,60,50</t>
   </si>
   <si>
+    <t>50分</t>
+  </si>
+  <si>
+    <t>80分 60分</t>
+  </si>
+  <si>
+    <t>70分 60分</t>
+  </si>
+  <si>
     <t>第三章歷屆</t>
   </si>
   <si>
@@ -632,12 +819,18 @@
     <t>基本電學第一章基礎題</t>
   </si>
   <si>
+    <t>基電考卷後半選擇</t>
+  </si>
+  <si>
     <t>計算能力要加強，算式列的出來但會算錯</t>
   </si>
   <si>
     <t>基本題型要再加強，計算能力要再練習</t>
   </si>
   <si>
+    <t>公式不熟悉</t>
+  </si>
+  <si>
     <t>胡之耀</t>
   </si>
   <si>
@@ -647,21 +840,60 @@
     <t>電子學第三章完</t>
   </si>
   <si>
+    <t>電子學第三章二極體電晶體</t>
+  </si>
+  <si>
+    <t>基電CH.4 節點電壓法</t>
+  </si>
+  <si>
     <t>56分</t>
   </si>
   <si>
+    <t>76分</t>
+  </si>
+  <si>
+    <t>程式設計 變數及判斷 50分</t>
+  </si>
+  <si>
+    <t>電子學二極體41分</t>
+  </si>
+  <si>
+    <t>35分</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>00:30</t>
+  </si>
+  <si>
     <t>第三章精選試題25題</t>
   </si>
   <si>
     <t>電子學講義第三章題目</t>
   </si>
   <si>
+    <t>講義3-29-3-31題目</t>
+  </si>
+  <si>
+    <t>考卷+課本習題</t>
+  </si>
+  <si>
     <t>狀況很好</t>
   </si>
   <si>
     <t>基本觀念不太熟，要多複習寫題目</t>
   </si>
   <si>
+    <t>回家要練習題目</t>
+  </si>
+  <si>
+    <t>容易恍神需要多提醒，回家作業常常會沒帶(寫)，請一定要準時完成作業，有空餘時間多來寫題目考試，以免落隊</t>
+  </si>
+  <si>
+    <t>張新岳</t>
+  </si>
+  <si>
     <t>檢討運動學考卷</t>
   </si>
   <si>
@@ -677,6 +909,27 @@
     <t>舉一反三</t>
   </si>
   <si>
+    <t>電子學：4-1電晶體工作原理~4-2電晶體交流等校電路</t>
+  </si>
+  <si>
+    <t>50 補考60分</t>
+  </si>
+  <si>
+    <t>70分</t>
+  </si>
+  <si>
+    <t>講義第3單元 精選試題30題</t>
+  </si>
+  <si>
+    <t>認真發問，但考試分數仍不佳，可以多跟同學研究討論</t>
+  </si>
+  <si>
+    <t>上課認真，理解力尚佳，多加練習會有不錯成效</t>
+  </si>
+  <si>
+    <t>上課尚認真，偶有小恍神、計算積極</t>
+  </si>
+  <si>
     <t>檢討作業+2-4</t>
   </si>
   <si>
@@ -707,12 +960,18 @@
     <t>數位邏輯4-3，4-4</t>
   </si>
   <si>
+    <t>電子學二極體38分  補考75分</t>
+  </si>
+  <si>
     <t>第四章綜合模擬試題+歷屆</t>
   </si>
   <si>
     <t>熟悉卡諾圖化簡</t>
   </si>
   <si>
+    <t>回家要多練習題目,複習上課觀念</t>
+  </si>
+  <si>
     <t>吳冬羽</t>
   </si>
   <si>
@@ -743,6 +1002,21 @@
     <t>還行，元素要背</t>
   </si>
   <si>
+    <t>程式設計 變數及判斷 90分</t>
+  </si>
+  <si>
+    <t>60 補考90分</t>
+  </si>
+  <si>
+    <t>95分</t>
+  </si>
+  <si>
+    <t>上課認真，解題速度快，但經度可能要再提升</t>
+  </si>
+  <si>
+    <t>沒什麼問題</t>
+  </si>
+  <si>
     <t>電子學第二章作業檢討</t>
   </si>
   <si>
@@ -752,6 +1026,24 @@
     <t>3-3 KVL 電壓定律 檢討作業</t>
   </si>
   <si>
+    <t>檢討第二章作業，考試 第三章BJT基本觀念</t>
+  </si>
+  <si>
+    <t>數位邏輯5-3</t>
+  </si>
+  <si>
+    <t>基本電學 KCL</t>
+  </si>
+  <si>
+    <t>90 (18/20)</t>
+  </si>
+  <si>
+    <t>92(23/25)</t>
+  </si>
+  <si>
+    <t>94(28/30)</t>
+  </si>
+  <si>
     <t>二極體練習卷，第二章課本歷屆</t>
   </si>
   <si>
@@ -761,6 +1053,18 @@
     <t>3-3 hot試題 4~12</t>
   </si>
   <si>
+    <t>2-4段落測驗</t>
+  </si>
+  <si>
+    <t>整流濾波測驗卷21~50</t>
+  </si>
+  <si>
+    <t>測驗卷後半+綜合模擬測驗</t>
+  </si>
+  <si>
+    <t>測驗卷31~50</t>
+  </si>
+  <si>
     <t>觀念的部分幾乎是忘光，題型基本上全部都要重新講一次，複習的階段比較像是幫補充之前的內容，或是再更深入的講一下，但今天上課時問的許多基礎觀念都答不出來，還有許多名詞只知道英文代號但不知道代表的意義(只會算但請他解釋卻沒辦法，或著題目如果寫中文可能就不知道再指什麼)，如果是實習的題目就可能會答不出來，理論的部分特別弱，需要加強，BJT的部分還沒複習到，但是是下一章而且內容相關，但也是基本觀念都忘記。花很多時間在檢討。</t>
   </si>
   <si>
@@ -770,6 +1074,15 @@
     <t>以前教過的內容基本上是忘光了，節點跟密爾們會搞錯，戴維寧分析時算的方法也不知道自己在寫什麼，所以以前學過的不是忘記，就是混再一起寫，解題的步驟也是幾乎不記得，需要一提一題帶著寫，後面的單元很多都是連貫的，往後問也答不出基本的觀念，考過了就忘記了，這樣沒辦法考大範圍的考試(統測、模擬考)</t>
   </si>
   <si>
+    <t>BJT內容基本上忘光，上課感覺像是重新學一次，有種不是很專心的感覺，回答問題時感覺也沒想就回答，有時候會講出一些很沒有觀念的答案，前一次上課問的問題在作解釋後也沒有寫下來，當週上課再問一樣的問題還是一樣答不出來</t>
+  </si>
+  <si>
+    <t>今天有把比較不熟悉的地方再做一次說明，狀況好一點</t>
+  </si>
+  <si>
+    <t>狀好比上周好一些，但觀念的部分還需要加強一點</t>
+  </si>
+  <si>
     <t>張哲銘</t>
   </si>
   <si>
@@ -830,6 +1143,21 @@
     <t>許景崴</t>
   </si>
   <si>
+    <t>基本電學第三章考試，第四章到戴維寧電路</t>
+  </si>
+  <si>
+    <t>85分 60分</t>
+  </si>
+  <si>
+    <t>基本電學第三張考卷20題，講義第四章到戴維寧</t>
+  </si>
+  <si>
+    <t>能快速理解並超前進度，多寫題目熟練度會更好</t>
+  </si>
+  <si>
+    <t>軟體設計丙級檢定</t>
+  </si>
+  <si>
     <t>作業檢討 / 三角函數P.91~P.94 P.98~P.102</t>
   </si>
   <si>
@@ -860,6 +1188,21 @@
     <t>數位邏輯ch4-1～4-2</t>
   </si>
   <si>
+    <t>3-1 P.115~P.125 / 3-2 P.129~P.132</t>
+  </si>
+  <si>
+    <t>111模考</t>
+  </si>
+  <si>
+    <t>基本電學ch4-5</t>
+  </si>
+  <si>
+    <t>110題目</t>
+  </si>
+  <si>
+    <t>3-2 P.132~P.135 / 3-3 P.139~P.140</t>
+  </si>
+  <si>
     <t>6/12</t>
   </si>
   <si>
@@ -875,6 +1218,18 @@
     <t>score:9/9（20分鐘），上次回家作業：11/15</t>
   </si>
   <si>
+    <t>沒寫</t>
+  </si>
+  <si>
+    <t>19/20（花費24m51s），上次回家作業：6/10</t>
+  </si>
+  <si>
+    <t>84分</t>
+  </si>
+  <si>
+    <t>正確題數(4/9)</t>
+  </si>
+  <si>
     <t>13:32</t>
   </si>
   <si>
@@ -887,6 +1242,12 @@
     <t>15:40</t>
   </si>
   <si>
+    <t>15:35</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
     <t>2-5 實力測驗第1、5、6、8、9、10題</t>
   </si>
   <si>
@@ -917,6 +1278,21 @@
     <t>ch4-1試題*5</t>
   </si>
   <si>
+    <t>3-1 學習成效驗收第1、4、7、8、10-1、13、14題</t>
+  </si>
+  <si>
+    <t>111模考27-28題，112作文（週四交）</t>
+  </si>
+  <si>
+    <t>Ch4練習題</t>
+  </si>
+  <si>
+    <t>111題目（9題）+110題目（20題）+112作文</t>
+  </si>
+  <si>
+    <t>3-2學習成效演練第2、4、7、9、10、11、12題</t>
+  </si>
+  <si>
     <t>作業正確率較低，計算容易出錯，計算能力需要多加強，但課堂中練習題都能夠寫出來</t>
   </si>
   <si>
@@ -947,6 +1323,18 @@
     <t>手動化簡需要記熟原理</t>
   </si>
   <si>
+    <t>上課認真配合</t>
+  </si>
+  <si>
+    <t>速度掌控的很好，大概一題寫1分15秒</t>
+  </si>
+  <si>
+    <t>上課認真</t>
+  </si>
+  <si>
+    <t>作業正確率有進步，上課回答問題正確率也有提高</t>
+  </si>
+  <si>
     <t>鄭伊育</t>
   </si>
   <si>
@@ -959,12 +1347,24 @@
     <t>110學測綜合測驗&amp;考單字</t>
   </si>
   <si>
+    <t>110綜合測驗&amp;閱讀講解&amp;考單字</t>
+  </si>
+  <si>
+    <t>12:35</t>
+  </si>
+  <si>
     <t>110年作文&amp;背#4單字&amp;110學測單字題單字</t>
   </si>
   <si>
+    <t>#3#4單字&amp;背110第一&amp;二大題單字&amp;112</t>
+  </si>
+  <si>
     <t>上課認真 單字有背比較熟</t>
   </si>
   <si>
+    <t>上課認真但單字不夠熟</t>
+  </si>
+  <si>
     <t>吳若水</t>
   </si>
   <si>
@@ -1001,12 +1401,21 @@
     <t>基本電學複雜電路檢討，重疊定理</t>
   </si>
   <si>
+    <t>戴為寧</t>
+  </si>
+  <si>
     <t>基本電學複雜電路題目</t>
   </si>
   <si>
+    <t>代為寧考卷</t>
+  </si>
+  <si>
     <t>基本觀念不好，有點難進到新進度</t>
   </si>
   <si>
+    <t>認真專心</t>
+  </si>
+  <si>
     <t>力學2-1~2-3</t>
   </si>
   <si>
@@ -1025,13 +1434,28 @@
     <t>基本電學戴維寧</t>
   </si>
   <si>
+    <t>基本電學戴維寧70分</t>
+  </si>
+  <si>
     <t>戴維寧40題</t>
   </si>
   <si>
+    <t>基本電學30題</t>
+  </si>
+  <si>
     <t>學生狀況皆良好,要寫回家作業</t>
   </si>
   <si>
-    <t>張新岳</t>
+    <t>寫題目有點卡</t>
+  </si>
+  <si>
+    <t>沒有寫作業</t>
+  </si>
+  <si>
+    <t>有時候會超級狀況外</t>
+  </si>
+  <si>
+    <t>60分 75分</t>
   </si>
   <si>
     <t>數位邏輯綜合模擬測驗+歷屆</t>
@@ -1040,15 +1464,24 @@
     <t>卡諾圖化簡非常不熟悉，最大項最小項觀念不清楚，需多練習</t>
   </si>
   <si>
+    <t>要多寫看觀念並寫題目，基本分還沒辦法把握</t>
+  </si>
+  <si>
     <t>電磁感應，冷次定律</t>
   </si>
   <si>
     <t>電磁感應上完、進入波的單元</t>
   </si>
   <si>
+    <t>第三章考試、考卷檢討</t>
+  </si>
+  <si>
     <t>下禮拜考第二次物理第二章</t>
   </si>
   <si>
+    <t>40分</t>
+  </si>
+  <si>
     <t>12:45</t>
   </si>
   <si>
@@ -1058,6 +1491,9 @@
     <t>考卷剩下題目</t>
   </si>
   <si>
+    <t xml:space="preserve"> #3#4單字&amp;背110第一&amp;二大題單字&amp;112作文&amp;109閱讀</t>
+  </si>
+  <si>
     <t>答題狀況不錯</t>
   </si>
   <si>
@@ -1067,7 +1503,16 @@
     <t>考試考得不錯，但上課有點不專心</t>
   </si>
   <si>
-    <t>沒寫</t>
+    <t>上課後段會專注度不足，但單字都有背</t>
+  </si>
+  <si>
+    <t>考卷常有粗心錯誤</t>
+  </si>
+  <si>
+    <t>程式設計 變數及判斷 55分</t>
+  </si>
+  <si>
+    <t>電子學二極體77分</t>
   </si>
   <si>
     <t>3-3立即練習</t>
@@ -1076,6 +1521,18 @@
     <t>2024/08/04</t>
   </si>
   <si>
+    <t>Ch4-1節點電壓法</t>
+  </si>
+  <si>
+    <t>程式設計 變數及判斷 70分</t>
+  </si>
+  <si>
+    <t>100分</t>
+  </si>
+  <si>
+    <t>上課認真主動發問，不過部分觀念需要多建立，才能避免重複錯誤</t>
+  </si>
+  <si>
     <t>稽納二極體電路</t>
   </si>
   <si>
@@ -1091,6 +1548,9 @@
     <t>檢討回家作業，講義Ch3-5~ch3-7觀念和習題</t>
   </si>
   <si>
+    <t>檢討考卷+平面向量</t>
+  </si>
+  <si>
     <t>回家作業講義ch2(38/52):73分</t>
   </si>
   <si>
@@ -1128,6 +1588,9 @@
   </si>
   <si>
     <t>歷屆試題ch3-5~ch3-6，統合模擬測驗ch3-1~ch3-6</t>
+  </si>
+  <si>
+    <t>考卷一張</t>
   </si>
   <si>
     <t>電壓電流電阻常常講錯，導致自己有時候在算什麼都不知道，自己講錯之後數值也會跟著帶錯</t>
@@ -1148,19 +1611,55 @@
 2.對於較新的題目比較不會。</t>
   </si>
   <si>
+    <t>三角函數還是要再熟悉，常常會因為小錯誤導致失分。平面向量的內容可以先複習，並沒有很困難，也可以做做講義後方的題目</t>
+  </si>
+  <si>
     <t>鄭名佑</t>
   </si>
   <si>
     <t>2-3 P.69 2-4 P.72~P.79</t>
   </si>
   <si>
+    <t>電工2-2跟2-3一部分</t>
+  </si>
+  <si>
+    <t>2-4 P.79~P.82 / 2-5 P.87~P.91 / 2-6 P.98~102</t>
+  </si>
+  <si>
     <t>他說草稿紙不見了，所以請他下次補</t>
   </si>
   <si>
+    <t>說檔案打不開所以沒寫</t>
+  </si>
+  <si>
+    <t>19:10</t>
+  </si>
+  <si>
     <t>2-4學習成效驗收第2、3、4、5、7-1題</t>
   </si>
   <si>
+    <t>2-3～2-4</t>
+  </si>
+  <si>
+    <t>之前的作業 / 2-6 第1、4、7、10題</t>
+  </si>
+  <si>
+    <t>戴維寧題目</t>
+  </si>
+  <si>
     <t>他說化任意三角函數為銳角三角函數的部分</t>
+  </si>
+  <si>
+    <t>題目可以理解有做出來</t>
+  </si>
+  <si>
+    <t>作業已經兩次都因為各種原因沒有寫，因此沒有辦法驗收上課結果，上課的時候不確定是不認真上課還是網路收訊不好，常常同一個問題需要問兩次才會回答</t>
+  </si>
+  <si>
+    <t>還ok 對於戴維寧的熟悉度要再加強</t>
+  </si>
+  <si>
+    <t>梁鎧晟</t>
   </si>
   <si>
     <t>檢討回家作業和講義ch3-6</t>
@@ -1182,25 +1681,55 @@
     <t>100,85,65</t>
   </si>
   <si>
+    <t>05:30</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
     <t>電子學第三章講義題目</t>
   </si>
   <si>
     <t>能快速吸收新觀念，多寫題目可加深熟練度</t>
   </si>
   <si>
+    <t>可以再多刷題目更熟悉</t>
+  </si>
+  <si>
+    <t>60 分75分</t>
+  </si>
+  <si>
     <t>觀念清楚，卡諾圖化簡偶爾卡頓</t>
   </si>
   <si>
+    <t>能理解基礎概念，但要多寫題目練習，會粗心要小心答題</t>
+  </si>
+  <si>
     <t>68分</t>
   </si>
   <si>
+    <t>65分</t>
+  </si>
+  <si>
+    <t>上課偶爾會發問，但要自己多練習+檢討，能避免反覆做錯的情形</t>
+  </si>
+  <si>
     <t>力學第一章+第二章一點點</t>
   </si>
   <si>
+    <t>力學2-3</t>
+  </si>
+  <si>
+    <t>測驗50分/回家作業68分</t>
+  </si>
+  <si>
     <t>力學第一章</t>
   </si>
   <si>
     <t>精神不錯 棒</t>
+  </si>
+  <si>
+    <t>下星期再考一次原理1-2單元</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +2190,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1701,86 +2230,202 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="I2" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>7585858050</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1833,57 +2478,57 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1891,28 +2536,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="C4">
         <v>901007060</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1965,28 +2610,28 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1994,28 +2639,28 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="H3" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2068,57 +2713,57 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="C2">
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="H2" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2127,281 +2772,6 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3">
-        <v>2.6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H3" t="s">
-        <v>177</v>
-      </c>
-      <c r="I3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H3" t="s">
-        <v>187</v>
-      </c>
-      <c r="I3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4">
-        <v>2.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5">
-        <v>2.5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H5" t="s">
-        <v>188</v>
-      </c>
-      <c r="I5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6">
-        <v>2.5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>184</v>
-      </c>
-      <c r="I6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -2443,60 +2813,419 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="H2" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="I2" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="H3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I3" t="s">
         <v>86</v>
       </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" t="s">
+        <v>248</v>
+      </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" t="s">
+        <v>250</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2504,28 +3233,144 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4">
-        <v>76</v>
+        <v>253</v>
+      </c>
+      <c r="C4" t="s">
+        <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="H4" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6">
+        <v>-10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" t="s">
+        <v>269</v>
+      </c>
+      <c r="I6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" t="s">
+        <v>270</v>
+      </c>
+      <c r="I7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2578,25 +3423,25 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="H2" t="s">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -2609,7 +3454,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2649,31 +3494,147 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H5" t="s">
+        <v>282</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" t="s">
+        <v>283</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2723,31 +3684,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="C2">
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>287</v>
       </c>
       <c r="F2">
         <v>2.1</v>
       </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="H2" t="s">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="I2" t="s">
-        <v>210</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2755,28 +3716,28 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>286</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>289</v>
       </c>
       <c r="H3" t="s">
-        <v>209</v>
+        <v>291</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2786,7 +3747,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2829,28 +3790,28 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>68.59999999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2858,28 +3819,57 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="I3" t="s">
-        <v>36</v>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2929,31 +3919,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2963,7 +3953,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3006,25 +3996,25 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="C2">
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3032,28 +4022,28 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>293</v>
       </c>
       <c r="C3">
         <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>295</v>
       </c>
       <c r="H3" t="s">
-        <v>213</v>
+        <v>296</v>
       </c>
       <c r="I3" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3061,22 +4051,51 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>126</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5">
+        <v>-10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3129,28 +4148,28 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="H2" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3158,28 +4177,28 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3189,7 +4208,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3229,57 +4248,144 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="I2" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>7585858050</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3288,138 +4394,6 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H2" t="s">
-        <v>230</v>
-      </c>
-      <c r="I2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H3" t="s">
-        <v>231</v>
-      </c>
-      <c r="I3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3461,28 +4435,270 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>122</v>
+      </c>
+      <c r="C2">
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>235</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H2" t="s">
+        <v>329</v>
+      </c>
+      <c r="I2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H4" t="s">
+        <v>331</v>
+      </c>
+      <c r="I4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H5" t="s">
+        <v>312</v>
+      </c>
+      <c r="I5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>328</v>
+      </c>
+      <c r="H8" t="s">
+        <v>334</v>
+      </c>
+      <c r="I8" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3532,31 +4748,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" t="s">
-        <v>238</v>
+        <v>336</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="H2" t="s">
-        <v>239</v>
+        <v>338</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3566,7 +4779,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3606,54 +4819,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>339</v>
+      </c>
+      <c r="C2" t="s">
+        <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>244</v>
+        <v>341</v>
       </c>
       <c r="I2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H3" t="s">
-        <v>245</v>
-      </c>
-      <c r="I3" t="s">
-        <v>246</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3703,54 +4893,54 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
+        <v>344</v>
       </c>
       <c r="H2" t="s">
-        <v>250</v>
+        <v>346</v>
       </c>
       <c r="I2" t="s">
-        <v>251</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3">
-        <v>72</v>
+        <v>343</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>345</v>
+      </c>
+      <c r="H3" t="s">
+        <v>347</v>
       </c>
       <c r="I3" t="s">
-        <v>252</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3760,7 +4950,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3800,289 +4990,54 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" t="s">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="H2" t="s">
-        <v>282</v>
+        <v>352</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" t="s">
-        <v>264</v>
+        <v>350</v>
+      </c>
+      <c r="C3">
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H3" t="s">
-        <v>283</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>274</v>
-      </c>
-      <c r="H4" t="s">
-        <v>284</v>
-      </c>
-      <c r="I4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F5">
-        <v>2.2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>275</v>
-      </c>
-      <c r="H5" t="s">
-        <v>285</v>
-      </c>
-      <c r="I5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" t="s">
-        <v>219</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>276</v>
-      </c>
-      <c r="H6" t="s">
-        <v>286</v>
-      </c>
-      <c r="I6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" t="s">
-        <v>287</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C8">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F8">
-        <v>2.2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>278</v>
-      </c>
-      <c r="H8" t="s">
-        <v>288</v>
-      </c>
-      <c r="I8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>279</v>
-      </c>
-      <c r="H9" t="s">
-        <v>289</v>
-      </c>
-      <c r="I9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>261</v>
-      </c>
-      <c r="D10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F10">
-        <v>2.2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>280</v>
-      </c>
-      <c r="H10" t="s">
-        <v>290</v>
-      </c>
-      <c r="I10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" t="s">
-        <v>267</v>
-      </c>
-      <c r="D11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>281</v>
-      </c>
-      <c r="H11" t="s">
-        <v>291</v>
-      </c>
-      <c r="I11" t="s">
-        <v>292</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -4092,7 +5047,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4132,31 +5087,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4164,28 +5119,28 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4193,57 +5148,86 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
         <v>58</v>
       </c>
-      <c r="I5" t="s">
-        <v>59</v>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4253,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4293,31 +5277,57 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>355</v>
       </c>
       <c r="C2">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>296</v>
+        <v>357</v>
       </c>
       <c r="H2" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="I2" t="s">
-        <v>298</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -4367,28 +5377,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>300</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>301</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4397,6 +5407,474 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>391</v>
+      </c>
+      <c r="H3" t="s">
+        <v>406</v>
+      </c>
+      <c r="I3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H4" t="s">
+        <v>407</v>
+      </c>
+      <c r="I4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F5">
+        <v>2.2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>393</v>
+      </c>
+      <c r="H5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>394</v>
+      </c>
+      <c r="H6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H7" t="s">
+        <v>410</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F8">
+        <v>2.2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>396</v>
+      </c>
+      <c r="H8" t="s">
+        <v>411</v>
+      </c>
+      <c r="I8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>397</v>
+      </c>
+      <c r="H9" t="s">
+        <v>412</v>
+      </c>
+      <c r="I9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" t="s">
+        <v>387</v>
+      </c>
+      <c r="F10">
+        <v>2.2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H10" t="s">
+        <v>413</v>
+      </c>
+      <c r="I10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>399</v>
+      </c>
+      <c r="H11" t="s">
+        <v>414</v>
+      </c>
+      <c r="I11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" t="s">
+        <v>380</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>400</v>
+      </c>
+      <c r="I12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>371</v>
+      </c>
+      <c r="D13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" t="s">
+        <v>388</v>
+      </c>
+      <c r="F13">
+        <v>2.1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>401</v>
+      </c>
+      <c r="H13" t="s">
+        <v>415</v>
+      </c>
+      <c r="I13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C14" t="s">
+        <v>381</v>
+      </c>
+      <c r="D14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" t="s">
+        <v>389</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>402</v>
+      </c>
+      <c r="H14" t="s">
+        <v>416</v>
+      </c>
+      <c r="I14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" t="s">
+        <v>387</v>
+      </c>
+      <c r="F15">
+        <v>2.2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>403</v>
+      </c>
+      <c r="H15" t="s">
+        <v>417</v>
+      </c>
+      <c r="I15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>404</v>
+      </c>
+      <c r="H16" t="s">
+        <v>418</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -4438,131 +5916,60 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>422</v>
+      </c>
+      <c r="C2">
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>305</v>
+        <v>425</v>
       </c>
       <c r="H2" t="s">
-        <v>307</v>
+        <v>427</v>
       </c>
       <c r="I2" t="s">
-        <v>214</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" t="s">
-        <v>304</v>
+        <v>423</v>
+      </c>
+      <c r="C3">
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>424</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="G3" t="s">
-        <v>306</v>
+        <v>426</v>
       </c>
       <c r="H3" t="s">
-        <v>308</v>
+        <v>428</v>
       </c>
       <c r="I3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2">
-        <v>57.5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H2" t="s">
-        <v>311</v>
-      </c>
-      <c r="I2" t="s">
-        <v>127</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -4612,28 +6019,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>430</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>314</v>
+        <v>431</v>
       </c>
       <c r="H2" t="s">
-        <v>315</v>
+        <v>432</v>
       </c>
       <c r="I2" t="s">
-        <v>316</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4642,6 +6049,209 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>437</v>
+      </c>
+      <c r="H3" t="s">
+        <v>439</v>
+      </c>
+      <c r="I3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2">
+        <v>57.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>443</v>
+      </c>
+      <c r="H3" t="s">
+        <v>445</v>
+      </c>
+      <c r="I3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -4683,31 +6293,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
       <c r="H2" t="s">
-        <v>319</v>
+        <v>449</v>
       </c>
       <c r="I2" t="s">
-        <v>320</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -4715,9 +6322,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4760,286 +6367,57 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>451</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>318</v>
+        <v>453</v>
       </c>
       <c r="H2" t="s">
-        <v>319</v>
+        <v>455</v>
       </c>
       <c r="I2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I2" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3">
-        <v>57</v>
+        <v>451</v>
+      </c>
+      <c r="C3" t="s">
+        <v>452</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>321</v>
+        <v>454</v>
       </c>
       <c r="H3" t="s">
-        <v>322</v>
+        <v>456</v>
       </c>
       <c r="I3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C4">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4">
-        <v>2.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H2" t="s">
-        <v>329</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C3">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>296</v>
-      </c>
-      <c r="H3" t="s">
-        <v>330</v>
-      </c>
-      <c r="I3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C4">
-        <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H4" t="s">
-        <v>331</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5089,57 +6467,60 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>451</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>453</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>455</v>
       </c>
       <c r="I2" t="s">
-        <v>142</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>441</v>
       </c>
       <c r="C3" t="s">
-        <v>332</v>
+        <v>457</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>333</v>
+        <v>443</v>
       </c>
       <c r="H3" t="s">
-        <v>195</v>
+        <v>458</v>
       </c>
       <c r="I3" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -5148,109 +6529,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -5292,86 +6570,270 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>76</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
         <v>79</v>
       </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>80</v>
-      </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" t="s">
         <v>86</v>
-      </c>
-      <c r="I3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
         <v>74</v>
       </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>460</v>
+      </c>
+      <c r="H3" t="s">
+        <v>461</v>
+      </c>
+      <c r="I3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="C4">
-        <v>7585858050</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>357</v>
+      </c>
+      <c r="H5" t="s">
+        <v>462</v>
+      </c>
+      <c r="I5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5421,60 +6883,60 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>335</v>
+        <v>463</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>466</v>
       </c>
       <c r="D2" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>348</v>
+        <v>469</v>
       </c>
       <c r="H2" t="s">
-        <v>353</v>
+        <v>472</v>
       </c>
       <c r="I2" t="s">
-        <v>233</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>334</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C3" t="s">
-        <v>340</v>
+        <v>422</v>
+      </c>
+      <c r="C3">
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>347</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>349</v>
+        <v>425</v>
       </c>
       <c r="H3" t="s">
-        <v>354</v>
+        <v>473</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5482,86 +6944,86 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" t="s">
-        <v>341</v>
+        <v>464</v>
+      </c>
+      <c r="C4">
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>345</v>
+        <v>468</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="H4" t="s">
-        <v>355</v>
+        <v>474</v>
       </c>
       <c r="I4" t="s">
-        <v>358</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
+        <v>423</v>
+      </c>
+      <c r="C5">
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
+        <v>424</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="G5" t="s">
-        <v>351</v>
+        <v>471</v>
       </c>
       <c r="H5" t="s">
-        <v>356</v>
+        <v>475</v>
       </c>
       <c r="I5" t="s">
-        <v>233</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>465</v>
       </c>
       <c r="C6" t="s">
-        <v>342</v>
+        <v>467</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>352</v>
+        <v>470</v>
       </c>
       <c r="H6" t="s">
-        <v>357</v>
+        <v>476</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -5570,6 +7032,783 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5">
+        <v>-10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4">
+        <v>7585858050</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" t="s">
+        <v>484</v>
+      </c>
+      <c r="I6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>499</v>
+      </c>
+      <c r="H2" t="s">
+        <v>505</v>
+      </c>
+      <c r="I2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>500</v>
+      </c>
+      <c r="H3" t="s">
+        <v>506</v>
+      </c>
+      <c r="I3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>501</v>
+      </c>
+      <c r="H4" t="s">
+        <v>507</v>
+      </c>
+      <c r="I4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E5" t="s">
+        <v>497</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>502</v>
+      </c>
+      <c r="H5" t="s">
+        <v>508</v>
+      </c>
+      <c r="I5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>503</v>
+      </c>
+      <c r="H6" t="s">
+        <v>509</v>
+      </c>
+      <c r="I6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>490</v>
+      </c>
+      <c r="C7">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>494</v>
+      </c>
+      <c r="E7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>504</v>
+      </c>
+      <c r="H7" t="s">
+        <v>510</v>
+      </c>
+      <c r="I7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2">
+        <v>1.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H2" t="s">
+        <v>522</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3">
+        <v>1.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>519</v>
+      </c>
+      <c r="H3" t="s">
+        <v>523</v>
+      </c>
+      <c r="I3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D4" t="s">
+        <v>517</v>
+      </c>
+      <c r="E4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4">
+        <v>1.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>520</v>
+      </c>
+      <c r="H4" t="s">
+        <v>524</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>497</v>
+      </c>
+      <c r="F5">
+        <v>1.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>521</v>
+      </c>
+      <c r="H5" t="s">
+        <v>525</v>
+      </c>
+      <c r="I5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -5611,31 +7850,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>359</v>
+        <v>527</v>
       </c>
       <c r="C2" t="s">
-        <v>360</v>
+        <v>528</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>303</v>
       </c>
       <c r="F2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>361</v>
+        <v>529</v>
       </c>
       <c r="H2" t="s">
-        <v>362</v>
+        <v>530</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5643,9 +7882,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5685,31 +7924,89 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>451</v>
       </c>
       <c r="C2" t="s">
-        <v>364</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>365</v>
+        <v>453</v>
       </c>
       <c r="H2" t="s">
-        <v>366</v>
+        <v>455</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H3" t="s">
+        <v>536</v>
+      </c>
+      <c r="I3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E4" t="s">
+        <v>534</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>454</v>
+      </c>
+      <c r="H4" t="s">
+        <v>537</v>
+      </c>
+      <c r="I4" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5717,7 +8014,681 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H3" t="s">
+        <v>539</v>
+      </c>
+      <c r="I3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>357</v>
+      </c>
+      <c r="H5" t="s">
+        <v>540</v>
+      </c>
+      <c r="I5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5">
+        <v>7585858050</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" t="s">
+        <v>543</v>
+      </c>
+      <c r="I7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>542</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9">
+        <v>2.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3">
+        <v>7585858050</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4">
+        <v>67.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -5759,60 +8730,57 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
+        <v>544</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>318</v>
+        <v>547</v>
       </c>
       <c r="H2" t="s">
-        <v>319</v>
+        <v>548</v>
       </c>
       <c r="I2" t="s">
-        <v>320</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>367</v>
+        <v>545</v>
       </c>
       <c r="C3" t="s">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>346</v>
+        <v>102</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>369</v>
+        <v>448</v>
       </c>
       <c r="H3" t="s">
-        <v>370</v>
+        <v>549</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -5820,9 +8788,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5862,83 +8830,173 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>118</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="I2" t="s">
-        <v>251</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="C3">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="H3" t="s">
-        <v>371</v>
+        <v>134</v>
       </c>
       <c r="I3" t="s">
-        <v>214</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C4">
-        <v>65</v>
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>129</v>
+      </c>
+      <c r="H4" t="s">
+        <v>135</v>
       </c>
       <c r="I4" t="s">
-        <v>252</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5946,7 +9004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -5991,112 +9049,112 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="I2" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5">
-        <v>7585858050</v>
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6104,9 +9162,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6146,28 +9204,161 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>154</v>
+      </c>
+      <c r="C2">
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>374</v>
+        <v>163</v>
       </c>
       <c r="H2" t="s">
-        <v>375</v>
+        <v>169</v>
       </c>
       <c r="I2" t="s">
-        <v>316</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -6175,139 +9366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3">
-        <v>7585858050</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4">
-        <v>67.5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4">
-        <v>2.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -6349,218 +9408,48 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6568,268 +9457,51 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2">
-        <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4">
-        <v>2.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2">
-        <v>2.2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3">
-        <v>1.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I4" t="s">
-        <v>138</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/output/學生個別表.xlsx
+++ b/output/學生個別表.xlsx
@@ -41,29 +41,30 @@
     <sheet name="許語恩" sheetId="32" r:id="rId32"/>
     <sheet name="謝宜均" sheetId="33" r:id="rId33"/>
     <sheet name="謝芷妍" sheetId="34" r:id="rId34"/>
-    <sheet name="邱宇綺" sheetId="35" r:id="rId35"/>
-    <sheet name="邱康齊" sheetId="36" r:id="rId36"/>
-    <sheet name="鄭名哲" sheetId="37" r:id="rId37"/>
-    <sheet name="陳冠亦" sheetId="38" r:id="rId38"/>
-    <sheet name="陳冠辰" sheetId="39" r:id="rId39"/>
-    <sheet name="陳宇翔" sheetId="40" r:id="rId40"/>
-    <sheet name="陳昱璇" sheetId="41" r:id="rId41"/>
-    <sheet name="陳泓均" sheetId="42" r:id="rId42"/>
-    <sheet name="陳泓鍇" sheetId="43" r:id="rId43"/>
-    <sheet name="陳致祐" sheetId="44" r:id="rId44"/>
-    <sheet name="陳言珉" sheetId="45" r:id="rId45"/>
-    <sheet name="黃僅佑" sheetId="46" r:id="rId46"/>
-    <sheet name="黃睿心" sheetId="47" r:id="rId47"/>
-    <sheet name="黃紳富" sheetId="48" r:id="rId48"/>
-    <sheet name="黃鈺程" sheetId="49" r:id="rId49"/>
-    <sheet name="黃閔詮" sheetId="50" r:id="rId50"/>
+    <sheet name="賴依伶" sheetId="35" r:id="rId35"/>
+    <sheet name="邱宇綺" sheetId="36" r:id="rId36"/>
+    <sheet name="邱康齊" sheetId="37" r:id="rId37"/>
+    <sheet name="鄭名哲" sheetId="38" r:id="rId38"/>
+    <sheet name="陳冠亦" sheetId="39" r:id="rId39"/>
+    <sheet name="陳冠辰" sheetId="40" r:id="rId40"/>
+    <sheet name="陳宇翔" sheetId="41" r:id="rId41"/>
+    <sheet name="陳昱璇" sheetId="42" r:id="rId42"/>
+    <sheet name="陳泓均" sheetId="43" r:id="rId43"/>
+    <sheet name="陳泓鍇" sheetId="44" r:id="rId44"/>
+    <sheet name="陳致祐" sheetId="45" r:id="rId45"/>
+    <sheet name="陳言珉" sheetId="46" r:id="rId46"/>
+    <sheet name="黃僅佑" sheetId="47" r:id="rId47"/>
+    <sheet name="黃睿心" sheetId="48" r:id="rId48"/>
+    <sheet name="黃紳富" sheetId="49" r:id="rId49"/>
+    <sheet name="黃鈺程" sheetId="50" r:id="rId50"/>
+    <sheet name="黃閔詮" sheetId="51" r:id="rId51"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="603">
   <si>
     <t>上課日期</t>
   </si>
@@ -140,6 +141,9 @@
     <t>2024/08/12</t>
   </si>
   <si>
+    <t>2024/08/14</t>
+  </si>
+  <si>
     <t>波的行進</t>
   </si>
   <si>
@@ -149,6 +153,9 @@
     <t>光的波動微粒說、考第三章</t>
   </si>
   <si>
+    <t>直線與圓 指數</t>
+  </si>
+  <si>
     <t>3/5</t>
   </si>
   <si>
@@ -161,6 +168,9 @@
     <t>15:00</t>
   </si>
   <si>
+    <t>13:30</t>
+  </si>
+  <si>
     <t>16:45</t>
   </si>
   <si>
@@ -170,6 +180,9 @@
     <t>17:00</t>
   </si>
   <si>
+    <t>15:30</t>
+  </si>
+  <si>
     <t>考卷剩下的題目</t>
   </si>
   <si>
@@ -179,6 +192,9 @@
     <t>考卷剩下題目、講義類題</t>
   </si>
   <si>
+    <t>直線與圓習題全</t>
+  </si>
+  <si>
     <t>有點缺乏回應</t>
   </si>
   <si>
@@ -188,6 +204,9 @@
     <t>專心聽但少回答問題</t>
   </si>
   <si>
+    <t>精神很好，吸收也很快很專心</t>
+  </si>
+  <si>
     <t>羅然</t>
   </si>
   <si>
@@ -281,6 +300,9 @@
     <t>徐昕語</t>
   </si>
   <si>
+    <t>2024/08/15</t>
+  </si>
+  <si>
     <t>基本電學第八章全</t>
   </si>
   <si>
@@ -290,6 +312,9 @@
     <t>基本電學9-2</t>
   </si>
   <si>
+    <t>基電9-2交流RL串連</t>
+  </si>
+  <si>
     <t>回：80    考：75</t>
   </si>
   <si>
@@ -299,6 +324,9 @@
     <t>回：70  考：80</t>
   </si>
   <si>
+    <t>70分、60分</t>
+  </si>
+  <si>
     <t>10:00</t>
   </si>
   <si>
@@ -314,6 +342,9 @@
     <t>基本電學9-1、9-2考卷</t>
   </si>
   <si>
+    <t>基電考卷選擇1~20題</t>
+  </si>
+  <si>
     <t>還不錯，但轉換方式還是要記熟</t>
   </si>
   <si>
@@ -323,6 +354,9 @@
     <t>還行，但轉換的公式與定義要記熟</t>
   </si>
   <si>
+    <t>還行，但基本公式要背熟</t>
+  </si>
+  <si>
     <t>粘耀璟</t>
   </si>
   <si>
@@ -354,12 +388,6 @@
   </si>
   <si>
     <t>電子學：4-4共基極放大電路 ~ 4-5共集極放大電路 (第4章完)</t>
-  </si>
-  <si>
-    <t>80 70 35 70 95 65 50</t>
-  </si>
-  <si>
-    <t>75、95、40、75、55(補考75)、50</t>
   </si>
   <si>
     <t>90分</t>
@@ -647,9 +675,6 @@
     <t xml:space="preserve">程式設計 變數及判斷 80分 </t>
   </si>
   <si>
-    <t>13:30</t>
-  </si>
-  <si>
     <t>吸收狀況良好，練習的題目量拉上去就會熟練</t>
   </si>
   <si>
@@ -731,7 +756,13 @@
     <t>戴維寧進度</t>
   </si>
   <si>
+    <t>電子學2-1~2-3考試，教3-1~3-2一半</t>
+  </si>
+  <si>
     <t>基礎電路分數50分</t>
+  </si>
+  <si>
+    <t>50 85</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -741,12 +772,18 @@
     <t>戴維寧剩下習題</t>
   </si>
   <si>
+    <t>電子學講義3-1題目</t>
+  </si>
+  <si>
     <t>題目寫比較慢，但基電能力不錯</t>
   </si>
   <si>
     <t>新題目比較多要多練習</t>
   </si>
   <si>
+    <t>要多複習，基礎要打好才能進下個章節</t>
+  </si>
+  <si>
     <t>基本電學3-1</t>
   </si>
   <si>
@@ -960,48 +997,69 @@
     <t>數位邏輯4-3，4-4</t>
   </si>
   <si>
+    <t>基本電學 4-5~4-7</t>
+  </si>
+  <si>
     <t>電子學二極體38分  補考75分</t>
   </si>
   <si>
+    <t>基本電學第一章~第四章 60分</t>
+  </si>
+  <si>
     <t>第四章綜合模擬試題+歷屆</t>
   </si>
   <si>
+    <t>基礎題16~56</t>
+  </si>
+  <si>
     <t>熟悉卡諾圖化簡</t>
   </si>
   <si>
     <t>回家要多練習題目,複習上課觀念</t>
   </si>
   <si>
+    <t>需要多練習題目</t>
+  </si>
+  <si>
     <t>吳冬羽</t>
   </si>
   <si>
+    <t>陳亮臣</t>
+  </si>
+  <si>
     <t>電子學2-2~2-3</t>
   </si>
   <si>
     <t>電子學3-1</t>
   </si>
   <si>
+    <t>電子學3-2</t>
+  </si>
+  <si>
     <t>回：65  考試：70</t>
   </si>
   <si>
     <t>回：70  考：60</t>
   </si>
   <si>
-    <t>15:30</t>
-  </si>
-  <si>
     <t>電子學考卷</t>
   </si>
   <si>
     <t>電子學講義選擇22題</t>
   </si>
   <si>
+    <t>電子學3-1~3-2考卷選擇31~50題</t>
+  </si>
+  <si>
     <t>材料的內容要背熟，公式也要記熟</t>
   </si>
   <si>
     <t>還行，元素要背</t>
   </si>
   <si>
+    <t>公式與觀念還不太熟悉，要記熟</t>
+  </si>
+  <si>
     <t>程式設計 變數及判斷 90分</t>
   </si>
   <si>
@@ -1089,12 +1147,22 @@
     <t>數位邏輯3-1~3-3</t>
   </si>
   <si>
+    <t>基本電學第三章</t>
+  </si>
+  <si>
     <t>講義選擇到3-3</t>
   </si>
   <si>
+    <t>今天練習的題目</t>
+  </si>
+  <si>
     <t>還行，但要被的部分要記熟</t>
   </si>
   <si>
+    <t>公式需要背熟
+數學運算要理解</t>
+  </si>
+  <si>
     <t>第三章主題1~主題3</t>
   </si>
   <si>
@@ -1110,18 +1178,33 @@
     <t>化工裝置第二章2-1~2-4</t>
   </si>
   <si>
+    <t>分析化學第二章考卷檢討、3-1、3-2</t>
+  </si>
+  <si>
+    <t>80分</t>
+  </si>
+  <si>
+    <t>03:00</t>
+  </si>
+  <si>
     <t>分析化學第一、二章考卷練習</t>
   </si>
   <si>
     <t>預習化工裝置2-5~2-6</t>
   </si>
   <si>
+    <t>分析第二章練習題</t>
+  </si>
+  <si>
     <t>回答問題 有時觀念沒有很清楚，會陷入毫無頭緒的狀態中。</t>
   </si>
   <si>
     <t>學校的裝置老師大多細節未提，對於多處觀念細節無印象，以題目多練習的方式來增強記憶</t>
   </si>
   <si>
+    <t>計算題答對率高，但觀念、理論題顯得較弱，應在原理部分多琢磨</t>
+  </si>
+  <si>
     <t>陳柏宇</t>
   </si>
   <si>
@@ -1137,24 +1220,30 @@
     <t>電池的題目觀念要再加強</t>
   </si>
   <si>
-    <t>陳亮臣</t>
-  </si>
-  <si>
     <t>許景崴</t>
   </si>
   <si>
     <t>基本電學第三章考試，第四章到戴維寧電路</t>
   </si>
   <si>
+    <t>基本電學4-5~4-7</t>
+  </si>
+  <si>
     <t>85分 60分</t>
   </si>
   <si>
     <t>基本電學第三張考卷20題，講義第四章到戴維寧</t>
   </si>
   <si>
+    <t>基本電學基礎題全</t>
+  </si>
+  <si>
     <t>能快速理解並超前進度，多寫題目熟練度會更好</t>
   </si>
   <si>
+    <t>會主動問問題</t>
+  </si>
+  <si>
     <t>軟體設計丙級檢定</t>
   </si>
   <si>
@@ -1203,6 +1292,12 @@
     <t>3-2 P.132~P.135 / 3-3 P.139~P.140</t>
   </si>
   <si>
+    <t>112-2英文統測模擬試題1-16題，高頻率單字第六回30個</t>
+  </si>
+  <si>
+    <t>電子學ch3-3</t>
+  </si>
+  <si>
     <t>6/12</t>
   </si>
   <si>
@@ -1230,6 +1325,9 @@
     <t>正確題數(4/9)</t>
   </si>
   <si>
+    <t>score:10/10（花費10m)，上次回家作業：33/50</t>
+  </si>
+  <si>
     <t>13:32</t>
   </si>
   <si>
@@ -1293,6 +1391,12 @@
     <t>3-2學習成效演練第2、4、7、9、10、11、12題</t>
   </si>
   <si>
+    <t>112-2英文統測模擬試題17-20題，背第五第六回單字</t>
+  </si>
+  <si>
+    <t>ch3-2~3-2*30</t>
+  </si>
+  <si>
     <t>作業正確率較低，計算容易出錯，計算能力需要多加強，但課堂中練習題都能夠寫出來</t>
   </si>
   <si>
@@ -1335,6 +1439,12 @@
     <t>作業正確率有進步，上課回答問題正確率也有提高</t>
   </si>
   <si>
+    <t>答題狀況中等，上單字有認真聽</t>
+  </si>
+  <si>
+    <t>解題速度快</t>
+  </si>
+  <si>
     <t>鄭伊育</t>
   </si>
   <si>
@@ -1377,6 +1487,12 @@
     <t>很專心，理解很快</t>
   </si>
   <si>
+    <t>70 80</t>
+  </si>
+  <si>
+    <t>新進度可以吸收，但第二章基礎還不夠熟，要多自己讀書</t>
+  </si>
+  <si>
     <t>數位邏輯3-1~3-4</t>
   </si>
   <si>
@@ -1458,15 +1574,24 @@
     <t>60分 75分</t>
   </si>
   <si>
+    <t>基本電學第一章~第四章 30分</t>
+  </si>
+  <si>
     <t>數位邏輯綜合模擬測驗+歷屆</t>
   </si>
   <si>
+    <t>基本電學16~56題</t>
+  </si>
+  <si>
     <t>卡諾圖化簡非常不熟悉，最大項最小項觀念不清楚，需多練習</t>
   </si>
   <si>
     <t>要多寫看觀念並寫題目，基本分還沒辦法把握</t>
   </si>
   <si>
+    <t>題目需多練習</t>
+  </si>
+  <si>
     <t>電磁感應，冷次定律</t>
   </si>
   <si>
@@ -1476,6 +1601,9 @@
     <t>第三章考試、考卷檢討</t>
   </si>
   <si>
+    <t>1-1、1-2複習、考試、檢討</t>
+  </si>
+  <si>
     <t>下禮拜考第二次物理第二章</t>
   </si>
   <si>
@@ -1485,6 +1613,12 @@
     <t>12:45</t>
   </si>
   <si>
+    <t>10:45</t>
+  </si>
+  <si>
+    <t>00:45</t>
+  </si>
+  <si>
     <t>上一單元的單元習題，複習第二章</t>
   </si>
   <si>
@@ -1494,6 +1628,9 @@
     <t xml:space="preserve"> #3#4單字&amp;背110第一&amp;二大題單字&amp;112作文&amp;109閱讀</t>
   </si>
   <si>
+    <t>1-3、1-4考卷</t>
+  </si>
+  <si>
     <t>答題狀況不錯</t>
   </si>
   <si>
@@ -1509,15 +1646,24 @@
     <t>考卷常有粗心錯誤</t>
   </si>
   <si>
+    <t>感覺回家未複習上課內容，大多觀念已講多次，卻時常錯誤</t>
+  </si>
+  <si>
     <t>程式設計 變數及判斷 55分</t>
   </si>
   <si>
     <t>電子學二極體77分</t>
   </si>
   <si>
+    <t>基本電學第一章~第四章 50分</t>
+  </si>
+  <si>
     <t>3-3立即練習</t>
   </si>
   <si>
+    <t>可以</t>
+  </si>
+  <si>
     <t>2024/08/04</t>
   </si>
   <si>
@@ -1525,6 +1671,9 @@
   </si>
   <si>
     <t>程式設計 變數及判斷 70分</t>
+  </si>
+  <si>
+    <t>55(補考75)</t>
   </si>
   <si>
     <t>100分</t>
@@ -1681,6 +1830,9 @@
     <t>100,85,65</t>
   </si>
   <si>
+    <t>90 85</t>
+  </si>
+  <si>
     <t>05:30</t>
   </si>
   <si>
@@ -1696,13 +1848,22 @@
     <t>可以再多刷題目更熟悉</t>
   </si>
   <si>
+    <t>第二章精熟，能順利銜接新進度，表現認真</t>
+  </si>
+  <si>
     <t>60 分75分</t>
   </si>
   <si>
+    <t>基本電學第一章~第四章 65分</t>
+  </si>
+  <si>
     <t>觀念清楚，卡諾圖化簡偶爾卡頓</t>
   </si>
   <si>
     <t>能理解基礎概念，但要多寫題目練習，會粗心要小心答題</t>
+  </si>
+  <si>
+    <t>戴維寧需要多練習</t>
   </si>
   <si>
     <t>68分</t>
@@ -2230,115 +2391,115 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="I2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
         <v>87</v>
       </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C4">
         <v>7585858050</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>2.5</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="I5" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2346,86 +2507,86 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C6">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="I6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7">
         <v>95</v>
       </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F7">
         <v>2.5</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F8">
         <v>2.5</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2478,57 +2639,57 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H3" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2536,28 +2697,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C4">
         <v>901007060</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="H4" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2610,28 +2771,28 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="I2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2639,28 +2800,28 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="I3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2670,7 +2831,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2713,57 +2874,86 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C2">
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="H2" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="I2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="H3" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I4" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2813,28 +3003,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="H2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2842,54 +3032,54 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F3">
         <v>2.6</v>
       </c>
       <c r="G3" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="H3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="H4" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2942,54 +3132,54 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" t="s">
         <v>87</v>
       </c>
-      <c r="B3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="H3" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="I3" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2997,51 +3187,51 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="I4" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>2.5</v>
       </c>
       <c r="G5" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="H5" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="I5" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3049,25 +3239,25 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="I6" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3075,54 +3265,54 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F7">
         <v>2.5</v>
       </c>
       <c r="G7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F8">
         <v>2.5</v>
       </c>
       <c r="G8" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="H8" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3175,57 +3365,57 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I2" t="s">
         <v>263</v>
-      </c>
-      <c r="H2" t="s">
-        <v>267</v>
-      </c>
-      <c r="I2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>87</v>
       </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3233,86 +3423,86 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="H4" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="I4" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>2.5</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="I5" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C6" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="E6" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="F6">
         <v>-10</v>
       </c>
       <c r="G6" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="H6" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="I6" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3320,57 +3510,57 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F7">
         <v>2.5</v>
       </c>
       <c r="G7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="H7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="I7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F8">
         <v>2.5</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H8" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3423,25 +3613,25 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -3494,31 +3684,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3526,115 +3716,115 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H3" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+      <c r="C4">
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="H5" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3684,31 +3874,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="C2">
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="F2">
         <v>2.1</v>
       </c>
       <c r="G2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="I2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3716,28 +3906,28 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="H3" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3747,7 +3937,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3790,28 +3980,28 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>68.59999999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3819,28 +4009,28 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3848,28 +4038,54 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3919,31 +4135,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3953,7 +4169,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3996,25 +4212,25 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C2">
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4022,28 +4238,28 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="C3">
         <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="H3" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="I3" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4051,51 +4267,80 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="F5">
         <v>-10</v>
       </c>
       <c r="G5" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="H5" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="I5" t="s">
-        <v>271</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I6" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -4105,7 +4350,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4148,28 +4393,28 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="H2" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4177,28 +4422,57 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="C3" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="H3" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="I3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" t="s">
         <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H4" t="s">
+        <v>326</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4248,86 +4522,86 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="I2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C3">
         <v>7585858050</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="I4" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4335,57 +4609,57 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>2.5</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="I5" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4435,31 +4709,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C2">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>58</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
       <c r="H2" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="I2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4509,28 +4783,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="H2" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="I2" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4538,109 +4812,109 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="H3" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="I3" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="H4" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="I4" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C5">
         <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="H6" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="I6" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4648,57 +4922,57 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="C7" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="H7" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="I7" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="C8" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="H8" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="I8" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -4708,7 +4982,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4748,28 +5022,54 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>0.5</v>
       </c>
       <c r="G2" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="H2" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>358</v>
+      </c>
+      <c r="H3" t="s">
+        <v>360</v>
+      </c>
+      <c r="I3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4822,28 +5122,28 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="C2" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4853,7 +5153,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4893,54 +5193,83 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="H2" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="I2" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="H3" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="I3" t="s">
-        <v>348</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4">
+        <v>-10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I4" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -4990,54 +5319,54 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="H2" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="I2" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="C3">
         <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -5087,31 +5416,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5119,28 +5448,28 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5148,86 +5477,83 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5563,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5277,57 +5603,86 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="C2">
         <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="H2" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="I2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C3" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>354</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H4" t="s">
+        <v>387</v>
+      </c>
+      <c r="I4" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -5377,28 +5732,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5408,7 +5763,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5451,28 +5806,28 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="C2" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="H2" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5480,83 +5835,83 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="C3" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="H3" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="I3" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="H4" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="I4" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="C5">
         <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="F5">
         <v>2.2</v>
       </c>
       <c r="G5" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="H5" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="I5" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5564,115 +5919,115 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="C6">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="H6" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="I6" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="C7" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="H7" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="C8">
         <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="E8" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="F8">
         <v>2.2</v>
       </c>
       <c r="G8" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
       <c r="H8" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="I8" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="C9" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="H9" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="I9" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5680,25 +6035,25 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="F10">
         <v>2.2</v>
       </c>
       <c r="G10" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="H10" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="I10" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5706,54 +6061,54 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="C11" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="H11" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="I11" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="C12" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5761,25 +6116,25 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="F13">
         <v>2.1</v>
       </c>
       <c r="G13" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="H13" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="I13" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5787,86 +6142,144 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="C14" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E14" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="H14" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="I14" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="C15" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="F15">
         <v>2.2</v>
       </c>
       <c r="G15" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="H15" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="I15" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="C16" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16" t="s">
+        <v>436</v>
+      </c>
+      <c r="H16" t="s">
+        <v>452</v>
+      </c>
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
         <v>404</v>
       </c>
-      <c r="H16" t="s">
-        <v>418</v>
-      </c>
-      <c r="I16" t="s">
-        <v>71</v>
+      <c r="C17">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>437</v>
+      </c>
+      <c r="H17" t="s">
+        <v>453</v>
+      </c>
+      <c r="I17" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>405</v>
+      </c>
+      <c r="C18" t="s">
+        <v>415</v>
+      </c>
+      <c r="D18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" t="s">
+        <v>421</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>438</v>
+      </c>
+      <c r="H18" t="s">
+        <v>454</v>
+      </c>
+      <c r="I18" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -5916,60 +6329,60 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="C2">
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="H2" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="I2" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="C3">
         <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="F3">
         <v>2.6</v>
       </c>
       <c r="G3" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="H3" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="I3" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -6022,25 +6435,25 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="D2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="H2" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6050,7 +6463,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6090,57 +6503,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>226</v>
+      </c>
+      <c r="C2" t="s">
+        <v>469</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>436</v>
+        <v>231</v>
       </c>
       <c r="H2" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="I2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C3" t="s">
-        <v>435</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>437</v>
-      </c>
-      <c r="H3" t="s">
-        <v>439</v>
-      </c>
-      <c r="I3" t="s">
-        <v>298</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6190,60 +6577,57 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C2">
-        <v>57.5</v>
+        <v>471</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="H2" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="I2" t="s">
-        <v>173</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>473</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="H3" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="I3" t="s">
-        <v>215</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -6252,6 +6636,109 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2">
+        <v>57.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H2" t="s">
+        <v>482</v>
+      </c>
+      <c r="I2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H3" t="s">
+        <v>483</v>
+      </c>
+      <c r="I3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -6293,131 +6780,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
+        <v>484</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>447</v>
+        <v>485</v>
       </c>
       <c r="F2">
         <v>2.2</v>
       </c>
       <c r="G2" t="s">
-        <v>448</v>
+        <v>486</v>
       </c>
       <c r="H2" t="s">
-        <v>449</v>
+        <v>487</v>
       </c>
       <c r="I2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>453</v>
-      </c>
-      <c r="H2" t="s">
-        <v>455</v>
-      </c>
-      <c r="I2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>451</v>
-      </c>
-      <c r="C3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H3" t="s">
-        <v>456</v>
-      </c>
-      <c r="I3" t="s">
-        <v>271</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -6470,28 +6854,28 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>489</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="H2" t="s">
-        <v>455</v>
+        <v>493</v>
       </c>
       <c r="I2" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6499,28 +6883,28 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="C3" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="H3" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="I3" t="s">
-        <v>215</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -6530,7 +6914,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6573,28 +6957,28 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6602,28 +6986,28 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6631,28 +7015,57 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>78</v>
       </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B5" t="s">
         <v>82</v>
       </c>
-      <c r="H4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="C5" t="s">
         <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -6661,6 +7074,535 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>491</v>
+      </c>
+      <c r="H2" t="s">
+        <v>493</v>
+      </c>
+      <c r="I2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H3" t="s">
+        <v>496</v>
+      </c>
+      <c r="I3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H2" t="s">
+        <v>379</v>
+      </c>
+      <c r="I2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>499</v>
+      </c>
+      <c r="H3" t="s">
+        <v>501</v>
+      </c>
+      <c r="I3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>384</v>
+      </c>
+      <c r="H5" t="s">
+        <v>502</v>
+      </c>
+      <c r="I5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" t="s">
+        <v>498</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>500</v>
+      </c>
+      <c r="H7" t="s">
+        <v>503</v>
+      </c>
+      <c r="I7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>513</v>
+      </c>
+      <c r="H2" t="s">
+        <v>517</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C3">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>461</v>
+      </c>
+      <c r="H3" t="s">
+        <v>518</v>
+      </c>
+      <c r="I3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>510</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>514</v>
+      </c>
+      <c r="H4" t="s">
+        <v>519</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F5">
+        <v>2.6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>515</v>
+      </c>
+      <c r="H5" t="s">
+        <v>520</v>
+      </c>
+      <c r="I5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C6" t="s">
+        <v>509</v>
+      </c>
+      <c r="D6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>514</v>
+      </c>
+      <c r="H6" t="s">
+        <v>521</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>507</v>
+      </c>
+      <c r="D7" t="s">
+        <v>511</v>
+      </c>
+      <c r="E7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F7">
+        <v>-10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>516</v>
+      </c>
+      <c r="H7" t="s">
+        <v>522</v>
+      </c>
+      <c r="I7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -6702,138 +7644,144 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>351</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>352</v>
+        <v>199</v>
       </c>
       <c r="I2" t="s">
-        <v>353</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C3">
-        <v>57</v>
+        <v>264</v>
+      </c>
+      <c r="C3" t="s">
+        <v>411</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="H3" t="s">
-        <v>461</v>
+        <v>279</v>
       </c>
       <c r="I3" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C4">
-        <v>62</v>
+        <v>197</v>
+      </c>
+      <c r="C4" t="s">
+        <v>523</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>200</v>
       </c>
       <c r="I4" t="s">
-        <v>354</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C5">
-        <v>75</v>
+        <v>266</v>
+      </c>
+      <c r="C5" t="s">
+        <v>524</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="F5">
-        <v>2.5</v>
+        <v>-10</v>
       </c>
       <c r="G5" t="s">
-        <v>357</v>
+        <v>277</v>
       </c>
       <c r="H5" t="s">
-        <v>462</v>
+        <v>312</v>
       </c>
       <c r="I5" t="s">
-        <v>173</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>382</v>
       </c>
       <c r="C6" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>500</v>
+      </c>
+      <c r="H6" t="s">
+        <v>527</v>
       </c>
       <c r="I6" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -6841,9 +7789,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6883,147 +7831,202 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C2" t="s">
-        <v>466</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>286</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>469</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>472</v>
+        <v>199</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
         <v>87</v>
       </c>
-      <c r="B3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C3">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>425</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
-        <v>473</v>
+        <v>118</v>
       </c>
       <c r="I3" t="s">
-        <v>429</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>464</v>
+        <v>103</v>
       </c>
       <c r="C4">
-        <v>83</v>
+        <v>7585858050</v>
       </c>
       <c r="D4" t="s">
-        <v>468</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>470</v>
+        <v>113</v>
       </c>
       <c r="H4" t="s">
-        <v>474</v>
+        <v>119</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>423</v>
-      </c>
-      <c r="C5">
-        <v>93</v>
+        <v>197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>530</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>424</v>
+        <v>111</v>
       </c>
       <c r="F5">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G5" t="s">
-        <v>471</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>475</v>
+        <v>200</v>
       </c>
       <c r="I5" t="s">
-        <v>429</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>528</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C6" t="s">
-        <v>467</v>
+        <v>529</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>470</v>
+        <v>278</v>
       </c>
       <c r="H6" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -7031,7 +8034,226 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H2" t="s">
+        <v>554</v>
+      </c>
+      <c r="I2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E3" t="s">
+        <v>547</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>549</v>
+      </c>
+      <c r="H3" t="s">
+        <v>555</v>
+      </c>
+      <c r="I3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C4" t="s">
+        <v>541</v>
+      </c>
+      <c r="D4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>550</v>
+      </c>
+      <c r="H4" t="s">
+        <v>556</v>
+      </c>
+      <c r="I4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>543</v>
+      </c>
+      <c r="E5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>551</v>
+      </c>
+      <c r="H5" t="s">
+        <v>557</v>
+      </c>
+      <c r="I5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>552</v>
+      </c>
+      <c r="H6" t="s">
+        <v>558</v>
+      </c>
+      <c r="I6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C7">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>543</v>
+      </c>
+      <c r="E7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H7" t="s">
+        <v>559</v>
+      </c>
+      <c r="I7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -7073,115 +8295,112 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>561</v>
+      </c>
+      <c r="C2" t="s">
+        <v>564</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>567</v>
       </c>
       <c r="H2" t="s">
-        <v>191</v>
+        <v>571</v>
       </c>
       <c r="I2" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" t="s">
-        <v>380</v>
+        <v>562</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>566</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>286</v>
       </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="s">
-        <v>479</v>
+        <v>568</v>
       </c>
       <c r="H3" t="s">
-        <v>267</v>
+        <v>572</v>
       </c>
       <c r="I3" t="s">
-        <v>251</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>563</v>
       </c>
       <c r="C4" t="s">
-        <v>477</v>
+        <v>565</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>566</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>286</v>
       </c>
       <c r="F4">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>569</v>
       </c>
       <c r="H4" t="s">
-        <v>192</v>
+        <v>573</v>
       </c>
       <c r="I4" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>262</v>
+        <v>546</v>
       </c>
       <c r="F5">
-        <v>-10</v>
+        <v>1.5</v>
       </c>
       <c r="G5" t="s">
-        <v>265</v>
+        <v>570</v>
       </c>
       <c r="H5" t="s">
-        <v>297</v>
+        <v>574</v>
       </c>
       <c r="I5" t="s">
-        <v>271</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -7189,9 +8408,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7231,202 +8450,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>576</v>
+      </c>
+      <c r="C2" t="s">
+        <v>577</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>578</v>
       </c>
       <c r="H2" t="s">
-        <v>191</v>
+        <v>579</v>
       </c>
       <c r="I2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4">
-        <v>7585858050</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4">
-        <v>2.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" t="s">
-        <v>482</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5">
-        <v>2.5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B6" t="s">
-        <v>481</v>
-      </c>
-      <c r="C6">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6">
-        <v>2.5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>266</v>
-      </c>
-      <c r="H6" t="s">
-        <v>484</v>
-      </c>
-      <c r="I6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>2.5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>483</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8">
-        <v>2.5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I8" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -7434,7 +8482,168 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>491</v>
+      </c>
+      <c r="H2" t="s">
+        <v>493</v>
+      </c>
+      <c r="I2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>585</v>
+      </c>
+      <c r="H3" t="s">
+        <v>586</v>
+      </c>
+      <c r="I3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D4" t="s">
+        <v>583</v>
+      </c>
+      <c r="E4" t="s">
+        <v>584</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>492</v>
+      </c>
+      <c r="H4" t="s">
+        <v>587</v>
+      </c>
+      <c r="I4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" t="s">
+        <v>588</v>
+      </c>
+      <c r="I5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
@@ -7476,608 +8685,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
+        <v>376</v>
       </c>
       <c r="D2" t="s">
-        <v>494</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>497</v>
+        <v>111</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>499</v>
+        <v>378</v>
       </c>
       <c r="H2" t="s">
-        <v>505</v>
+        <v>379</v>
       </c>
       <c r="I2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>480</v>
-      </c>
-      <c r="B3" t="s">
-        <v>486</v>
-      </c>
-      <c r="C3" t="s">
-        <v>491</v>
-      </c>
-      <c r="D3" t="s">
-        <v>495</v>
-      </c>
-      <c r="E3" t="s">
-        <v>498</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>500</v>
-      </c>
-      <c r="H3" t="s">
-        <v>506</v>
-      </c>
-      <c r="I3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>487</v>
-      </c>
-      <c r="C4" t="s">
-        <v>492</v>
-      </c>
-      <c r="D4" t="s">
-        <v>496</v>
-      </c>
-      <c r="E4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>501</v>
-      </c>
-      <c r="H4" t="s">
-        <v>507</v>
-      </c>
-      <c r="I4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>494</v>
-      </c>
-      <c r="E5" t="s">
-        <v>497</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>502</v>
-      </c>
-      <c r="H5" t="s">
-        <v>508</v>
-      </c>
-      <c r="I5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>489</v>
-      </c>
-      <c r="C6" t="s">
-        <v>493</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>503</v>
-      </c>
-      <c r="H6" t="s">
-        <v>509</v>
-      </c>
-      <c r="I6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>490</v>
-      </c>
-      <c r="C7">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>494</v>
-      </c>
-      <c r="E7" t="s">
-        <v>497</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>504</v>
-      </c>
-      <c r="H7" t="s">
-        <v>510</v>
-      </c>
-      <c r="I7" t="s">
-        <v>511</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C2" t="s">
-        <v>515</v>
-      </c>
-      <c r="D2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2">
-        <v>1.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>518</v>
-      </c>
-      <c r="H2" t="s">
-        <v>522</v>
-      </c>
-      <c r="I2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D3" t="s">
-        <v>517</v>
-      </c>
-      <c r="E3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F3">
-        <v>1.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>519</v>
-      </c>
-      <c r="H3" t="s">
-        <v>523</v>
-      </c>
-      <c r="I3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>514</v>
-      </c>
-      <c r="C4" t="s">
-        <v>516</v>
-      </c>
-      <c r="D4" t="s">
-        <v>517</v>
-      </c>
-      <c r="E4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F4">
-        <v>1.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>520</v>
-      </c>
-      <c r="H4" t="s">
-        <v>524</v>
-      </c>
-      <c r="I4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>451</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>497</v>
-      </c>
-      <c r="F5">
-        <v>1.5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>521</v>
-      </c>
-      <c r="H5" t="s">
-        <v>525</v>
-      </c>
-      <c r="I5" t="s">
-        <v>526</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C2" t="s">
-        <v>528</v>
-      </c>
-      <c r="D2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>529</v>
-      </c>
-      <c r="H2" t="s">
-        <v>530</v>
-      </c>
-      <c r="I2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>453</v>
-      </c>
-      <c r="H2" t="s">
-        <v>455</v>
-      </c>
-      <c r="I2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>531</v>
-      </c>
-      <c r="C3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>497</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>535</v>
-      </c>
-      <c r="H3" t="s">
-        <v>536</v>
-      </c>
-      <c r="I3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C4" t="s">
-        <v>452</v>
-      </c>
-      <c r="D4" t="s">
-        <v>533</v>
-      </c>
-      <c r="E4" t="s">
-        <v>534</v>
-      </c>
-      <c r="F4">
-        <v>2.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>454</v>
-      </c>
-      <c r="H4" t="s">
-        <v>537</v>
-      </c>
-      <c r="I4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>351</v>
-      </c>
-      <c r="H2" t="s">
-        <v>352</v>
-      </c>
-      <c r="I2" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -8085,383 +8714,138 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="C3">
         <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="H3" t="s">
-        <v>539</v>
+        <v>591</v>
       </c>
       <c r="I3" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="C4">
         <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="C5">
         <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>2.5</v>
       </c>
       <c r="G5" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="H5" t="s">
-        <v>540</v>
+        <v>592</v>
       </c>
       <c r="I5" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
-        <v>538</v>
+        <v>589</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" t="s">
-        <v>541</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H2" t="s">
-        <v>267</v>
-      </c>
-      <c r="I2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>2.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5">
-        <v>7585858050</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5">
-        <v>2.5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" t="s">
-        <v>482</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6">
-        <v>2.5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>192</v>
-      </c>
-      <c r="I6" t="s">
-        <v>195</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7">
-        <v>60</v>
+        <v>382</v>
+      </c>
+      <c r="C7" t="s">
+        <v>590</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F7">
         <v>2.5</v>
       </c>
       <c r="G7" t="s">
-        <v>266</v>
+        <v>385</v>
       </c>
       <c r="H7" t="s">
-        <v>543</v>
+        <v>593</v>
       </c>
       <c r="I7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>2.5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>542</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9">
-        <v>2.5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" t="s">
-        <v>283</v>
-      </c>
-      <c r="I9" t="s">
-        <v>115</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -8511,89 +8895,89 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C3">
         <v>7585858050</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>67.5</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -8601,86 +8985,86 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C5">
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>2.5</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="I5" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+      <c r="C6">
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F7">
         <v>2.5</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -8689,6 +9073,280 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>7585858050</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" t="s">
+        <v>596</v>
+      </c>
+      <c r="I7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>595</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9">
+        <v>2.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" t="s">
+        <v>295</v>
+      </c>
+      <c r="I9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -8730,57 +9388,57 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>544</v>
+        <v>597</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>547</v>
+        <v>600</v>
       </c>
       <c r="H2" t="s">
-        <v>548</v>
+        <v>601</v>
       </c>
       <c r="I2" t="s">
-        <v>450</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>545</v>
+        <v>598</v>
       </c>
       <c r="C3" t="s">
-        <v>546</v>
+        <v>599</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>448</v>
+        <v>486</v>
       </c>
       <c r="H3" t="s">
-        <v>549</v>
+        <v>602</v>
       </c>
       <c r="I3" t="s">
-        <v>450</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -8833,86 +9491,86 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C2">
         <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C3">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -8920,83 +9578,83 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -9049,54 +9707,54 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9104,57 +9762,57 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="H4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I5" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -9204,31 +9862,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C2">
         <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="H2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9236,74 +9894,74 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="I3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H4" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I4" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>2.5</v>
       </c>
       <c r="G5" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I5" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9311,54 +9969,54 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I6" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F7">
         <v>2.5</v>
       </c>
       <c r="G7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -9408,48 +10066,48 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>2.2</v>
       </c>
       <c r="G2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="I2" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F3">
         <v>1.5</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="I3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9457,51 +10115,51 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="I4" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="H5" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="I5" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/output/學生個別表.xlsx
+++ b/output/學生個別表.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="663">
   <si>
     <t>上課日期</t>
   </si>
@@ -102,36 +102,57 @@
     <t>2024/08/08</t>
   </si>
   <si>
+    <t>2024/08/15</t>
+  </si>
+  <si>
     <t>4-2 平面上的三角函數</t>
   </si>
   <si>
     <t>第二冊 1/5三角餘弦</t>
   </si>
   <si>
+    <t>正餘弦的應用</t>
+  </si>
+  <si>
     <t>32/37</t>
   </si>
   <si>
     <t>14/16</t>
   </si>
   <si>
+    <t>25/33</t>
+  </si>
+  <si>
     <t>17:40</t>
   </si>
   <si>
+    <t>18:40</t>
+  </si>
+  <si>
     <t>19:40</t>
   </si>
   <si>
+    <t>20:40</t>
+  </si>
+  <si>
     <t>82 90 91 92 93</t>
   </si>
   <si>
     <t>p99-102</t>
   </si>
   <si>
+    <t>107 112-114</t>
+  </si>
+  <si>
     <t>有問題都會問</t>
   </si>
   <si>
     <t>有回應 舉一反三</t>
   </si>
   <si>
+    <t>計算常出錯</t>
+  </si>
+  <si>
     <t>常樂</t>
   </si>
   <si>
@@ -300,9 +321,6 @@
     <t>徐昕語</t>
   </si>
   <si>
-    <t>2024/08/15</t>
-  </si>
-  <si>
     <t>基本電學第八章全</t>
   </si>
   <si>
@@ -390,6 +408,9 @@
     <t>電子學：4-4共基極放大電路 ~ 4-5共集極放大電路 (第4章完)</t>
   </si>
   <si>
+    <t>一模進度複習</t>
+  </si>
+  <si>
     <t>90分</t>
   </si>
   <si>
@@ -420,6 +441,9 @@
     <t>講義第4章 精選試題20題</t>
   </si>
   <si>
+    <t>講義後面習題</t>
+  </si>
+  <si>
     <t>上課尚認真，但三角函數單元較不熟練，需多加練習</t>
   </si>
   <si>
@@ -438,6 +462,9 @@
     <t>上課認真，筆記、計算積極</t>
   </si>
   <si>
+    <t>很好不要在粗心了</t>
+  </si>
+  <si>
     <t>傅俊翔</t>
   </si>
   <si>
@@ -465,6 +492,9 @@
     <t>電子學 2-6 例題24完</t>
   </si>
   <si>
+    <t>數位邏輯第四單元完</t>
+  </si>
+  <si>
     <t>作業：73</t>
   </si>
   <si>
@@ -474,6 +504,9 @@
     <t>作業 57</t>
   </si>
   <si>
+    <t>作業 50</t>
+  </si>
+  <si>
     <t>4-1立即練習、綜合模擬測驗</t>
   </si>
   <si>
@@ -490,6 +523,9 @@
   </si>
   <si>
     <t>第二單元精選試題 15題</t>
+  </si>
+  <si>
+    <t>綜合模擬測驗完</t>
   </si>
   <si>
     <t>作業10題錯三
@@ -510,6 +546,9 @@
   </si>
   <si>
     <t>第二單元的公式多 容易搞混，需要多練習，計算速度也可以再提升</t>
+  </si>
+  <si>
+    <t>回答及寫題狀況ok，更熟悉之後解題速度可以再快一點</t>
   </si>
   <si>
     <t>黃瑜富</t>
@@ -699,12 +738,18 @@
     <t>基電第四章結點</t>
   </si>
   <si>
+    <t>基電迴路</t>
+  </si>
+  <si>
     <t>80 100 80</t>
   </si>
   <si>
     <t>90*4</t>
   </si>
   <si>
+    <t>回家作業分數85分、90分、測驗90分</t>
+  </si>
+  <si>
     <t>14:30</t>
   </si>
   <si>
@@ -726,27 +771,42 @@
     <t>公式要背熟</t>
   </si>
   <si>
+    <t>計算速度要加快</t>
+  </si>
+  <si>
     <t>基本電學複雜進度</t>
   </si>
   <si>
     <t>電工第一章</t>
   </si>
   <si>
+    <t>電工第二章</t>
+  </si>
+  <si>
     <t>70,86</t>
   </si>
   <si>
     <t>96/60</t>
   </si>
   <si>
+    <t>20:20</t>
+  </si>
+  <si>
     <t>0805戴維寧考卷 0722電工考卷</t>
   </si>
   <si>
+    <t>剩餘考卷完成</t>
+  </si>
+  <si>
     <t>題目理解很好，計算速度快，有時會粗心</t>
   </si>
   <si>
     <t>非常好舉一反三</t>
   </si>
   <si>
+    <t>認真還不錯</t>
+  </si>
+  <si>
     <t>何宥嶙</t>
   </si>
   <si>
@@ -757,6 +817,9 @@
   </si>
   <si>
     <t>電子學2-1~2-3考試，教3-1~3-2一半</t>
+  </si>
+  <si>
+    <t>基本電學 戴維寧</t>
   </si>
   <si>
     <t>基礎電路分數50分</t>
@@ -775,6 +838,9 @@
     <t>電子學講義3-1題目</t>
   </si>
   <si>
+    <t>0801考卷後20題</t>
+  </si>
+  <si>
     <t>題目寫比較慢，但基電能力不錯</t>
   </si>
   <si>
@@ -784,6 +850,12 @@
     <t>要多複習，基礎要打好才能進下個章節</t>
   </si>
   <si>
+    <t>計算速度需要加油，Eth要多練習</t>
+  </si>
+  <si>
+    <t>胡之耀</t>
+  </si>
+  <si>
     <t>基本電學3-1</t>
   </si>
   <si>
@@ -793,12 +865,24 @@
     <t>基本電學並聯</t>
   </si>
   <si>
+    <t>數學三角3-1全</t>
+  </si>
+  <si>
     <t>數80 四則運算60</t>
   </si>
   <si>
+    <t>80分</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
     <t>16:39</t>
   </si>
   <si>
+    <t>04:30</t>
+  </si>
+  <si>
     <t>機電考卷選擇10題</t>
   </si>
   <si>
@@ -808,6 +892,9 @@
     <t>基電考卷20題</t>
   </si>
   <si>
+    <t>講義練習，考卷填充</t>
+  </si>
+  <si>
     <t>計算速度太慢，需要再加強</t>
   </si>
   <si>
@@ -817,6 +904,9 @@
     <t>計算太容易出錯了</t>
   </si>
   <si>
+    <t>計算速度太慢</t>
+  </si>
+  <si>
     <t>數學第三章</t>
   </si>
   <si>
@@ -868,9 +958,6 @@
     <t>公式不熟悉</t>
   </si>
   <si>
-    <t>胡之耀</t>
-  </si>
-  <si>
     <t>電子學第三章</t>
   </si>
   <si>
@@ -883,6 +970,12 @@
     <t>基電CH.4 節點電壓法</t>
   </si>
   <si>
+    <t>電子學第三張張複習</t>
+  </si>
+  <si>
+    <t>電子學 第四章</t>
+  </si>
+  <si>
     <t>56分</t>
   </si>
   <si>
@@ -916,6 +1009,9 @@
     <t>考卷+課本習題</t>
   </si>
   <si>
+    <t>電子學 第四章講義題目</t>
+  </si>
+  <si>
     <t>狀況很好</t>
   </si>
   <si>
@@ -928,24 +1024,36 @@
     <t>容易恍神需要多提醒，回家作業常常會沒帶(寫)，請一定要準時完成作業，有空餘時間多來寫題目考試，以免落隊</t>
   </si>
   <si>
+    <t>公式要在記熟 觀念要清楚</t>
+  </si>
+  <si>
     <t>張新岳</t>
   </si>
   <si>
     <t>檢討運動學考卷</t>
   </si>
   <si>
+    <t>檢討 模擬考</t>
+  </si>
+  <si>
     <t>22/25</t>
   </si>
   <si>
-    <t>20:40</t>
+    <t>18:30</t>
   </si>
   <si>
     <t>繼續寫考卷剩下</t>
   </si>
   <si>
+    <t>電磁</t>
+  </si>
+  <si>
     <t>舉一反三</t>
   </si>
   <si>
+    <t>良好</t>
+  </si>
+  <si>
     <t>電子學：4-1電晶體工作原理~4-2電晶體交流等校電路</t>
   </si>
   <si>
@@ -973,6 +1081,12 @@
     <t>數學第一冊2-4到最後一題</t>
   </si>
   <si>
+    <t>數學第一冊2-4完 題目練習</t>
+  </si>
+  <si>
+    <t>作業 93</t>
+  </si>
+  <si>
     <t>13:00</t>
   </si>
   <si>
@@ -985,10 +1099,16 @@
     <t>2-3成效驗收</t>
   </si>
   <si>
+    <t>2-4剩下的成效驗收題目跟2-3的成效驗收</t>
+  </si>
+  <si>
     <t>認真，會根據問題思辯。有自己的解題思路</t>
   </si>
   <si>
     <t>回答跟寫題目的狀況良好</t>
+  </si>
+  <si>
+    <t>這邊計算還蠻容易出錯的，角度或正負號帶錯之類的情況</t>
   </si>
   <si>
     <t>張孟綺</t>
@@ -1181,12 +1301,6 @@
     <t>分析化學第二章考卷檢討、3-1、3-2</t>
   </si>
   <si>
-    <t>80分</t>
-  </si>
-  <si>
-    <t>03:00</t>
-  </si>
-  <si>
     <t>分析化學第一、二章考卷練習</t>
   </si>
   <si>
@@ -1298,6 +1412,12 @@
     <t>電子學ch3-3</t>
   </si>
   <si>
+    <t>111題目檢討</t>
+  </si>
+  <si>
+    <t>數位邏輯ch4-3</t>
+  </si>
+  <si>
     <t>6/12</t>
   </si>
   <si>
@@ -1328,6 +1448,9 @@
     <t>score:10/10（花費10m)，上次回家作業：33/50</t>
   </si>
   <si>
+    <t>score:2/3（2分鐘）+4/5（8mins)，上次回家作業：4/5</t>
+  </si>
+  <si>
     <t>13:32</t>
   </si>
   <si>
@@ -1397,6 +1520,12 @@
     <t>ch3-2~3-2*30</t>
   </si>
   <si>
+    <t>112作文、複習112-109題目</t>
+  </si>
+  <si>
+    <t>ch4-3-3*4</t>
+  </si>
+  <si>
     <t>作業正確率較低，計算容易出錯，計算能力需要多加強，但課堂中練習題都能夠寫出來</t>
   </si>
   <si>
@@ -1445,6 +1574,12 @@
     <t>解題速度快</t>
   </si>
   <si>
+    <t>上課沒有很專心</t>
+  </si>
+  <si>
+    <t>最簡積之和跟最簡和之積常常搞混，請多多練習</t>
+  </si>
+  <si>
     <t>鄭伊育</t>
   </si>
   <si>
@@ -1481,39 +1616,72 @@
     <t>1-3~1-4主題3</t>
   </si>
   <si>
+    <t>作業檢討，平面向量到範例5</t>
+  </si>
+  <si>
+    <t>回家作業分數77</t>
+  </si>
+  <si>
     <t>考卷一張，1-3講義剩下的題目</t>
   </si>
   <si>
+    <t>考卷一張</t>
+  </si>
+  <si>
     <t>很專心，理解很快</t>
   </si>
   <si>
+    <t>很好，很專心</t>
+  </si>
+  <si>
+    <t>電工機械第二章</t>
+  </si>
+  <si>
     <t>70 80</t>
   </si>
   <si>
+    <t>電工機械第二章20題</t>
+  </si>
+  <si>
     <t>新進度可以吸收，但第二章基礎還不夠熟，要多自己讀書</t>
   </si>
   <si>
+    <t>良好,作業要記得寫</t>
+  </si>
+  <si>
     <t>數位邏輯3-1~3-4</t>
   </si>
   <si>
     <t>數位邏輯3-5 4-1</t>
   </si>
   <si>
+    <t>數位邏輯第四章</t>
+  </si>
+  <si>
     <t>85分 78分</t>
   </si>
   <si>
+    <t>回家作業分數83分 80分</t>
+  </si>
+  <si>
     <t>綜合模擬測驗3-1~3-4</t>
   </si>
   <si>
     <t>一二章習題+第三章全</t>
   </si>
   <si>
+    <t>第四章全</t>
+  </si>
+  <si>
     <t>不太會化簡布林代數式請回家多練習</t>
   </si>
   <si>
     <t>第一章多背，基礎閘偶爾看錯</t>
   </si>
   <si>
+    <t>第三章歷屆試題沒寫，需補寫。第四章卡諾圖圈選化簡不熟練</t>
+  </si>
+  <si>
     <t>基本電學複雜電路檢討，重疊定理</t>
   </si>
   <si>
@@ -1565,9 +1733,18 @@
     <t>寫題目有點卡</t>
   </si>
   <si>
+    <t>基電第四單元</t>
+  </si>
+  <si>
     <t>沒有寫作業</t>
   </si>
   <si>
+    <t>考試:90/回家作業:85</t>
+  </si>
+  <si>
+    <t>節點30題</t>
+  </si>
+  <si>
     <t>有時候會超級狀況外</t>
   </si>
   <si>
@@ -1616,9 +1793,6 @@
     <t>10:45</t>
   </si>
   <si>
-    <t>00:45</t>
-  </si>
-  <si>
     <t>上一單元的單元習題，複習第二章</t>
   </si>
   <si>
@@ -1700,6 +1874,9 @@
     <t>檢討考卷+平面向量</t>
   </si>
   <si>
+    <t>整流電路、濾波電路介紹</t>
+  </si>
+  <si>
     <t>回家作業講義ch2(38/52):73分</t>
   </si>
   <si>
@@ -1709,15 +1886,12 @@
     <t>回家作業分數(31/38):81.5分</t>
   </si>
   <si>
-    <t>18:30</t>
+    <t>66(20/30) 但寫的速度有變快</t>
   </si>
   <si>
     <t>09:00</t>
   </si>
   <si>
-    <t>18:40</t>
-  </si>
-  <si>
     <t>20:30</t>
   </si>
   <si>
@@ -1739,7 +1913,7 @@
     <t>歷屆試題ch3-5~ch3-6，統合模擬測驗ch3-1~ch3-6</t>
   </si>
   <si>
-    <t>考卷一張</t>
+    <t>測驗卷31~50 2-6隨堂練習 歷屆試題</t>
   </si>
   <si>
     <t>電壓電流電阻常常講錯，導致自己有時候在算什麼都不知道，自己講錯之後數值也會跟著帶錯</t>
@@ -1763,6 +1937,9 @@
     <t>三角函數還是要再熟悉，常常會因為小錯誤導致失分。平面向量的內容可以先複習，並沒有很困難，也可以做做講義後方的題目</t>
   </si>
   <si>
+    <t>狀況比之前好很多蠻多東西都說得出來，感覺得到交代要背的東西有背，寫題目的速度也有變快</t>
+  </si>
+  <si>
     <t>鄭名佑</t>
   </si>
   <si>
@@ -1849,6 +2026,9 @@
   </si>
   <si>
     <t>第二章精熟，能順利銜接新進度，表現認真</t>
+  </si>
+  <si>
+    <t>認真上進，但希望能改變讀書態度</t>
   </si>
   <si>
     <t>60 分75分</t>
@@ -2248,7 +2428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2291,28 +2471,28 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2320,28 +2500,57 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2391,202 +2600,202 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="I2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C3">
         <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>7585858050</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F5">
         <v>2.5</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="I5" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C6">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H6" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="I6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C7">
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F7">
         <v>2.5</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="I7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F8">
         <v>2.5</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H8" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="I8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2595,6 +2804,167 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4">
+        <v>901007060</v>
+      </c>
+      <c r="D4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5">
+        <v>2.2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -2639,86 +3009,86 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="H3" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="C4">
-        <v>901007060</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>237</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="G4" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="H4" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2726,7 +3096,879 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3">
+        <v>2.6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>270</v>
+      </c>
+      <c r="H4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H5" t="s">
+        <v>291</v>
+      </c>
+      <c r="I5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>286</v>
+      </c>
+      <c r="I6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9">
+        <v>2.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>286</v>
+      </c>
+      <c r="I9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F6">
+        <v>-10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9">
+        <v>2.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
+        <v>315</v>
+      </c>
+      <c r="I9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10">
+        <v>2.5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H10" t="s">
+        <v>311</v>
+      </c>
+      <c r="I10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -2771,870 +4013,54 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>317</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>319</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>321</v>
       </c>
       <c r="H2" t="s">
-        <v>221</v>
+        <v>323</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" t="s">
-        <v>219</v>
+        <v>318</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>320</v>
       </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>322</v>
       </c>
       <c r="H3" t="s">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="I3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2">
-        <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>230</v>
-      </c>
-      <c r="H3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4">
-        <v>2.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H4" t="s">
-        <v>234</v>
-      </c>
-      <c r="I4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F3">
-        <v>2.6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H3" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4">
-        <v>2.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>242</v>
-      </c>
-      <c r="H4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>257</v>
-      </c>
-      <c r="H3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4">
-        <v>2.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5">
-        <v>2.5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>258</v>
-      </c>
-      <c r="H5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6">
-        <v>2.5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>256</v>
-      </c>
-      <c r="I6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7">
-        <v>2.5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>176</v>
-      </c>
-      <c r="I7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8">
-        <v>2.5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>259</v>
-      </c>
-      <c r="H8" t="s">
-        <v>262</v>
-      </c>
-      <c r="I8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>275</v>
-      </c>
-      <c r="H2" t="s">
-        <v>279</v>
-      </c>
-      <c r="I2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4">
-        <v>2.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>276</v>
-      </c>
-      <c r="H4" t="s">
-        <v>280</v>
-      </c>
-      <c r="I4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5">
-        <v>2.5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E6" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6">
-        <v>-10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H6" t="s">
-        <v>281</v>
-      </c>
-      <c r="I6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7">
-        <v>2.5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H7" t="s">
-        <v>282</v>
-      </c>
-      <c r="I7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8">
-        <v>2.5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" t="s">
-        <v>122</v>
-      </c>
-      <c r="I8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H2" t="s">
-        <v>288</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3684,147 +4110,147 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="I3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C4">
         <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="H5" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H6" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3834,7 +4260,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3874,31 +4300,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="C2">
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="F2">
         <v>2.1</v>
       </c>
       <c r="G2" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="H2" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="I2" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3906,28 +4332,57 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="H3" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3977,31 +4432,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>68.59999999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4009,83 +4464,83 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4135,31 +4590,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4169,7 +4624,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4212,54 +4667,54 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="C2">
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="I2" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="C3">
         <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="H3" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="I3" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4267,80 +4722,103 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="F5">
         <v>-10</v>
       </c>
       <c r="G5" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="I5" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="H6" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="I6" t="s">
-        <v>315</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I7" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4393,86 +4871,86 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="H2" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="C3" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="H3" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="H4" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4522,144 +5000,144 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="I2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>7585858050</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="I4" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F5">
         <v>2.5</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H5" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="I5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4709,31 +5187,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C2">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="I2" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4783,196 +5261,196 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="H2" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="I2" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="H3" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="I3" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="H4" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="I4" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C5">
         <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="H5" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="I5" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="C6" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="H6" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="I6" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="C7" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="H7" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="I7" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="C8" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="H8" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="I8" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -5022,54 +5500,54 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>0.5</v>
       </c>
       <c r="G2" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="H2" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="H3" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5122,28 +5600,28 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="C2" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5193,83 +5671,83 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="H2" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="I2" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="H3" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="I3" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="C4" t="s">
-        <v>367</v>
+        <v>264</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="E4" t="s">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="H4" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="I4" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -5319,54 +5797,54 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="H2" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="I2" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="C3">
         <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -5416,60 +5894,60 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5477,83 +5955,83 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5603,86 +6081,86 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="C2">
         <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="H2" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="H4" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="I4" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -5732,28 +6210,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -5763,7 +6241,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5806,28 +6284,28 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="H2" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5835,199 +6313,199 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="H3" t="s">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="I3" t="s">
-        <v>455</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>424</v>
+        <v>465</v>
       </c>
       <c r="H4" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="I4" t="s">
-        <v>456</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="C5">
         <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="F5">
         <v>2.2</v>
       </c>
       <c r="G5" t="s">
-        <v>425</v>
+        <v>466</v>
       </c>
       <c r="H5" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="I5" t="s">
-        <v>457</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="C6">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="H6" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
       <c r="I6" t="s">
-        <v>456</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="C7" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="H7" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="C8">
         <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="E8" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="F8">
         <v>2.2</v>
       </c>
       <c r="G8" t="s">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="H8" t="s">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="I8" t="s">
-        <v>457</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="C9" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="H9" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="I9" t="s">
-        <v>455</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6035,25 +6513,25 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>397</v>
+        <v>435</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="F10">
         <v>2.2</v>
       </c>
       <c r="G10" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="H10" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="I10" t="s">
-        <v>457</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6061,225 +6539,280 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="C11" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="H11" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="I11" t="s">
-        <v>455</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="C12" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="F13">
         <v>2.1</v>
       </c>
       <c r="G13" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="H13" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="I13" t="s">
-        <v>457</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="C14" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="E14" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="H14" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="I14" t="s">
-        <v>455</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="C15" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="F15">
         <v>2.2</v>
       </c>
       <c r="G15" t="s">
-        <v>435</v>
+        <v>476</v>
       </c>
       <c r="H15" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="I15" t="s">
-        <v>457</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>403</v>
+        <v>441</v>
       </c>
       <c r="C16" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="H16" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="I16" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="C17">
         <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="H17" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="I17" t="s">
-        <v>456</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="C18" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="E18" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="H18" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="I18" t="s">
-        <v>455</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>444</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>461</v>
+      </c>
+      <c r="F19">
+        <v>2.1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>480</v>
+      </c>
+      <c r="H19" t="s">
+        <v>498</v>
+      </c>
+      <c r="I19" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>445</v>
+      </c>
+      <c r="C20" t="s">
+        <v>456</v>
+      </c>
+      <c r="D20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" t="s">
+        <v>462</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>481</v>
+      </c>
+      <c r="H20" t="s">
+        <v>499</v>
+      </c>
+      <c r="I20" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -6329,60 +6862,60 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>458</v>
+        <v>503</v>
       </c>
       <c r="C2">
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>461</v>
+        <v>506</v>
       </c>
       <c r="H2" t="s">
-        <v>463</v>
+        <v>508</v>
       </c>
       <c r="I2" t="s">
-        <v>465</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>459</v>
+        <v>504</v>
       </c>
       <c r="C3">
         <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>460</v>
+        <v>505</v>
       </c>
       <c r="F3">
         <v>2.6</v>
       </c>
       <c r="G3" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
       <c r="H3" t="s">
-        <v>464</v>
+        <v>509</v>
       </c>
       <c r="I3" t="s">
-        <v>465</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -6391,151 +6924,6 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H2" t="s">
-        <v>468</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H2" t="s">
-        <v>470</v>
-      </c>
-      <c r="I2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -6577,28 +6965,231 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>514</v>
+      </c>
+      <c r="H2" t="s">
+        <v>516</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>515</v>
+      </c>
+      <c r="H3" t="s">
+        <v>517</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H2" t="s">
+        <v>521</v>
+      </c>
+      <c r="I2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3">
+        <v>1.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>520</v>
+      </c>
+      <c r="H3" t="s">
+        <v>522</v>
+      </c>
+      <c r="I3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="H2" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="I2" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6606,28 +7197,57 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="C3" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="H3" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="I3" t="s">
-        <v>314</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>530</v>
+      </c>
+      <c r="H4" t="s">
+        <v>533</v>
+      </c>
+      <c r="I4" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -6677,60 +7297,60 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="C2">
         <v>57.5</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="H2" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="C3" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="H3" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="I3" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -6780,28 +7400,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="F2">
         <v>2.2</v>
       </c>
       <c r="G2" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="H2" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="I2" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -6851,60 +7471,60 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="H2" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="I2" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="C3" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="H3" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
       <c r="I3" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -6954,31 +7574,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6986,86 +7606,86 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -7075,7 +7695,7 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7115,60 +7735,86 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="H2" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="I2" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="C3" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="H3" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="I3" t="s">
-        <v>223</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C4" t="s">
+        <v>553</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>554</v>
+      </c>
+      <c r="I4" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -7218,167 +7864,167 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="H2" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="I2" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="C3">
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="H3" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="I3" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="C4">
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="C5">
         <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F5">
         <v>2.5</v>
       </c>
       <c r="G5" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="H5" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="I5" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="C7" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F7">
         <v>2.5</v>
       </c>
       <c r="G7" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="H7" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="I7" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -7428,173 +8074,173 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="C2" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="D2" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="H2" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>458</v>
+        <v>503</v>
       </c>
       <c r="C3">
         <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>461</v>
+        <v>506</v>
       </c>
       <c r="H3" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="I3" t="s">
-        <v>465</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
       <c r="C4">
         <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="H4" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>459</v>
+        <v>504</v>
       </c>
       <c r="C5">
         <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>460</v>
+        <v>505</v>
       </c>
       <c r="F5">
         <v>2.6</v>
       </c>
       <c r="G5" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="H5" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="I5" t="s">
-        <v>465</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="C6" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="H6" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="D7" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="E7" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="F7">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="H7" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="I7" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -7644,144 +8290,144 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="I2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="H3" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="I3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="I4" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="F5">
         <v>-10</v>
       </c>
       <c r="G5" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="I5" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="C6" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="H6" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="I6" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -7831,202 +8477,202 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="I2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C3">
         <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>7585858050</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F5">
         <v>2.5</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="I5" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="B6" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="C6">
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="H6" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
       <c r="I6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F7">
         <v>2.5</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="I7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F8">
         <v>2.5</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H8" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="I8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -8036,7 +8682,7 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8079,86 +8725,86 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>543</v>
+        <v>320</v>
       </c>
       <c r="E2" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>548</v>
+        <v>606</v>
       </c>
       <c r="H2" t="s">
-        <v>554</v>
+        <v>612</v>
       </c>
       <c r="I2" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="B3" t="s">
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="C3" t="s">
-        <v>540</v>
+        <v>599</v>
       </c>
       <c r="D3" t="s">
-        <v>544</v>
+        <v>603</v>
       </c>
       <c r="E3" t="s">
-        <v>547</v>
+        <v>605</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>549</v>
+        <v>607</v>
       </c>
       <c r="H3" t="s">
-        <v>555</v>
+        <v>613</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="C4" t="s">
-        <v>541</v>
+        <v>600</v>
       </c>
       <c r="D4" t="s">
-        <v>545</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>550</v>
+        <v>608</v>
       </c>
       <c r="H4" t="s">
-        <v>556</v>
+        <v>614</v>
       </c>
       <c r="I4" t="s">
-        <v>560</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -8166,86 +8812,115 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>543</v>
+        <v>320</v>
       </c>
       <c r="E5" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>551</v>
+        <v>609</v>
       </c>
       <c r="H5" t="s">
-        <v>557</v>
+        <v>615</v>
       </c>
       <c r="I5" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="C6" t="s">
-        <v>542</v>
+        <v>601</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>552</v>
+        <v>610</v>
       </c>
       <c r="H6" t="s">
-        <v>558</v>
+        <v>616</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="C7">
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>543</v>
+        <v>320</v>
       </c>
       <c r="E7" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>553</v>
+        <v>515</v>
       </c>
       <c r="H7" t="s">
-        <v>559</v>
+        <v>617</v>
       </c>
       <c r="I7" t="s">
-        <v>560</v>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C8" t="s">
+        <v>602</v>
+      </c>
+      <c r="D8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" t="s">
+        <v>604</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>611</v>
+      </c>
+      <c r="H8" t="s">
+        <v>618</v>
+      </c>
+      <c r="I8" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -8295,112 +8970,112 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>561</v>
+        <v>620</v>
       </c>
       <c r="C2" t="s">
-        <v>564</v>
+        <v>623</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>1.5</v>
       </c>
       <c r="G2" t="s">
-        <v>567</v>
+        <v>626</v>
       </c>
       <c r="H2" t="s">
-        <v>571</v>
+        <v>630</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>562</v>
+        <v>621</v>
       </c>
       <c r="D3" t="s">
-        <v>566</v>
+        <v>625</v>
       </c>
       <c r="E3" t="s">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>1.5</v>
       </c>
       <c r="G3" t="s">
-        <v>568</v>
+        <v>627</v>
       </c>
       <c r="H3" t="s">
-        <v>572</v>
+        <v>631</v>
       </c>
       <c r="I3" t="s">
-        <v>575</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>563</v>
+        <v>622</v>
       </c>
       <c r="C4" t="s">
-        <v>565</v>
+        <v>624</v>
       </c>
       <c r="D4" t="s">
-        <v>566</v>
+        <v>625</v>
       </c>
       <c r="E4" t="s">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>1.5</v>
       </c>
       <c r="G4" t="s">
-        <v>569</v>
+        <v>628</v>
       </c>
       <c r="H4" t="s">
-        <v>573</v>
+        <v>632</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
       <c r="F5">
         <v>1.5</v>
       </c>
       <c r="G5" t="s">
-        <v>570</v>
+        <v>629</v>
       </c>
       <c r="H5" t="s">
-        <v>574</v>
+        <v>633</v>
       </c>
       <c r="I5" t="s">
-        <v>575</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -8450,31 +9125,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>576</v>
+        <v>635</v>
       </c>
       <c r="C2" t="s">
-        <v>577</v>
+        <v>636</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>578</v>
+        <v>637</v>
       </c>
       <c r="H2" t="s">
-        <v>579</v>
+        <v>638</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -8484,7 +9159,7 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8524,31 +9199,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="H2" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="I2" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -8556,86 +9231,115 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>580</v>
+        <v>639</v>
       </c>
       <c r="C3" t="s">
-        <v>581</v>
+        <v>640</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>585</v>
+        <v>644</v>
       </c>
       <c r="H3" t="s">
-        <v>586</v>
+        <v>645</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="C4" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="D4" t="s">
-        <v>583</v>
+        <v>642</v>
       </c>
       <c r="E4" t="s">
-        <v>584</v>
+        <v>643</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="H4" t="s">
-        <v>587</v>
+        <v>646</v>
       </c>
       <c r="I4" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>582</v>
+        <v>641</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F5">
         <v>2.5</v>
       </c>
       <c r="G5" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="H5" t="s">
-        <v>588</v>
+        <v>647</v>
       </c>
       <c r="I5" t="s">
-        <v>182</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>3.2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H6" t="s">
+        <v>648</v>
+      </c>
+      <c r="I6" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -8685,167 +9389,167 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="H2" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="I2" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="C3">
         <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="H3" t="s">
-        <v>591</v>
+        <v>651</v>
       </c>
       <c r="I3" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="C4">
         <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="C5">
         <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F5">
         <v>2.5</v>
       </c>
       <c r="G5" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="H5" t="s">
-        <v>592</v>
+        <v>652</v>
       </c>
       <c r="I5" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
-        <v>589</v>
+        <v>649</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="C7" t="s">
-        <v>590</v>
+        <v>650</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F7">
         <v>2.5</v>
       </c>
       <c r="G7" t="s">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="H7" t="s">
-        <v>593</v>
+        <v>653</v>
       </c>
       <c r="I7" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -8855,7 +9559,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8895,176 +9599,205 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>7585858050</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>67.5</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="I4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C5">
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F5">
         <v>2.5</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="I5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F7">
         <v>2.5</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>124</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -9117,228 +9850,228 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
-        <v>594</v>
+        <v>654</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="H2" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="I2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="I3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>7585858050</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F5">
         <v>2.5</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="I6" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="C7">
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F7">
         <v>2.5</v>
       </c>
       <c r="G7" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="H7" t="s">
-        <v>596</v>
+        <v>656</v>
       </c>
       <c r="I7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F8">
         <v>2.5</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="I8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>595</v>
+        <v>655</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F9">
         <v>2.5</v>
       </c>
       <c r="G9" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -9388,57 +10121,57 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>597</v>
+        <v>657</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="H2" t="s">
-        <v>601</v>
+        <v>661</v>
       </c>
       <c r="I2" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>598</v>
+        <v>658</v>
       </c>
       <c r="C3" t="s">
-        <v>599</v>
+        <v>659</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F3">
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="H3" t="s">
-        <v>602</v>
+        <v>662</v>
       </c>
       <c r="I3" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -9448,7 +10181,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9491,86 +10224,86 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C2">
         <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C3">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="H3" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9578,83 +10311,112 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="H5" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="H6" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="I6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -9707,54 +10469,54 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9762,57 +10524,57 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="H4" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H5" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="I5" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -9862,161 +10624,161 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C2">
         <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="H2" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="I3" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="H4" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I4" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F5">
         <v>2.5</v>
       </c>
       <c r="G5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="I5" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F6">
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="I6" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F7">
         <v>2.5</v>
       </c>
       <c r="G7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="H7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -10066,48 +10828,48 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <v>2.2</v>
       </c>
       <c r="G2" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="I2" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" t="s">
         <v>184</v>
       </c>
-      <c r="D3" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="F3">
         <v>1.5</v>
       </c>
       <c r="G3" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="I3" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10115,51 +10877,51 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="I4" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H5" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="I5" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/output/學生個別表.xlsx
+++ b/output/學生個別表.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="662">
   <si>
     <t>上課日期</t>
   </si>
@@ -994,9 +994,6 @@
     <t>10:30</t>
   </si>
   <si>
-    <t>00:30</t>
-  </si>
-  <si>
     <t>第三章精選試題25題</t>
   </si>
   <si>
@@ -1463,10 +1460,10 @@
     <t>15:40</t>
   </si>
   <si>
+    <t>21:30</t>
+  </si>
+  <si>
     <t>15:35</t>
-  </si>
-  <si>
-    <t>21:30</t>
   </si>
   <si>
     <t>2-5 實力測驗第1、5、6、8、9、10題</t>
@@ -3725,10 +3722,10 @@
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I2" t="s">
         <v>258</v>
@@ -3783,10 +3780,10 @@
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I4" t="s">
         <v>195</v>
@@ -3835,19 +3832,19 @@
         <v>304</v>
       </c>
       <c r="E6" t="s">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="F6">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3870,10 +3867,10 @@
         <v>2.5</v>
       </c>
       <c r="G7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I7" t="s">
         <v>135</v>
@@ -3931,7 +3928,7 @@
         <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I9" t="s">
         <v>134</v>
@@ -3954,10 +3951,10 @@
         <v>2.5</v>
       </c>
       <c r="G10" t="s">
+        <v>309</v>
+      </c>
+      <c r="H10" t="s">
         <v>310</v>
-      </c>
-      <c r="H10" t="s">
-        <v>311</v>
       </c>
       <c r="I10" t="s">
         <v>258</v>
@@ -4013,10 +4010,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -4028,10 +4025,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I2" t="s">
         <v>29</v>
@@ -4042,22 +4039,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
@@ -4145,7 +4142,7 @@
         <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
@@ -4160,7 +4157,7 @@
         <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I3" t="s">
         <v>135</v>
@@ -4200,7 +4197,7 @@
         <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
@@ -4215,10 +4212,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I5" t="s">
         <v>133</v>
@@ -4232,7 +4229,7 @@
         <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D6" t="s">
         <v>68</v>
@@ -4247,7 +4244,7 @@
         <v>124</v>
       </c>
       <c r="H6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I6" t="s">
         <v>133</v>
@@ -4303,7 +4300,7 @@
         <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C2">
         <v>80</v>
@@ -4312,19 +4309,19 @@
         <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F2">
         <v>2.1</v>
       </c>
       <c r="G2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4332,13 +4329,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
         <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -4347,10 +4344,10 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I3" t="s">
         <v>82</v>
@@ -4361,13 +4358,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" t="s">
         <v>334</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>335</v>
-      </c>
-      <c r="D4" t="s">
-        <v>336</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
@@ -4376,10 +4373,10 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I4" t="s">
         <v>82</v>
@@ -4693,7 +4690,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C3">
         <v>72</v>
@@ -4708,13 +4705,13 @@
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4748,25 +4745,25 @@
         <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D5" t="s">
         <v>304</v>
       </c>
       <c r="E5" t="s">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="F5">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4774,10 +4771,10 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
@@ -4789,13 +4786,13 @@
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4871,10 +4868,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -4886,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I2" t="s">
         <v>103</v>
@@ -4900,10 +4897,10 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D3" t="s">
         <v>69</v>
@@ -4915,10 +4912,10 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I3" t="s">
         <v>103</v>
@@ -4929,7 +4926,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C4" t="s">
         <v>92</v>
@@ -4944,10 +4941,10 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I4" t="s">
         <v>103</v>
@@ -5061,7 +5058,7 @@
         <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -5090,7 +5087,7 @@
         <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
@@ -5105,7 +5102,7 @@
         <v>122</v>
       </c>
       <c r="H5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I5" t="s">
         <v>135</v>
@@ -5119,7 +5116,7 @@
         <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D6" t="s">
         <v>68</v>
@@ -5208,7 +5205,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I2" t="s">
         <v>161</v>
@@ -5264,7 +5261,7 @@
         <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
@@ -5276,13 +5273,13 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5290,7 +5287,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D3" t="s">
         <v>69</v>
@@ -5302,13 +5299,13 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5316,7 +5313,7 @@
         <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D4" t="s">
         <v>69</v>
@@ -5328,13 +5325,13 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5357,10 +5354,10 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I5" t="s">
         <v>161</v>
@@ -5371,10 +5368,10 @@
         <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D6" t="s">
         <v>69</v>
@@ -5386,13 +5383,13 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5400,10 +5397,10 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D7" t="s">
         <v>69</v>
@@ -5415,13 +5412,13 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5429,10 +5426,10 @@
         <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
@@ -5444,13 +5441,13 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H8" t="s">
+        <v>392</v>
+      </c>
+      <c r="I8" t="s">
         <v>393</v>
-      </c>
-      <c r="I8" t="s">
-        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -5503,7 +5500,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D2" t="s">
         <v>117</v>
@@ -5515,10 +5512,10 @@
         <v>0.5</v>
       </c>
       <c r="G2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I2" t="s">
         <v>103</v>
@@ -5529,7 +5526,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D3" t="s">
         <v>68</v>
@@ -5541,10 +5538,10 @@
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I3" t="s">
         <v>83</v>
@@ -5600,10 +5597,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C2" t="s">
         <v>401</v>
-      </c>
-      <c r="C2" t="s">
-        <v>402</v>
       </c>
       <c r="D2" t="s">
         <v>40</v>
@@ -5618,7 +5615,7 @@
         <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I2" t="s">
         <v>55</v>
@@ -5674,7 +5671,7 @@
         <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -5686,13 +5683,13 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5700,7 +5697,7 @@
         <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
@@ -5712,13 +5709,13 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5726,13 +5723,13 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C4" t="s">
         <v>264</v>
       </c>
       <c r="D4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
@@ -5741,13 +5738,13 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H4" t="s">
+        <v>411</v>
+      </c>
+      <c r="I4" t="s">
         <v>412</v>
-      </c>
-      <c r="I4" t="s">
-        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -5800,7 +5797,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D2" t="s">
         <v>43</v>
@@ -5812,13 +5809,13 @@
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H2" t="s">
         <v>416</v>
       </c>
-      <c r="H2" t="s">
-        <v>417</v>
-      </c>
       <c r="I2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5826,7 +5823,7 @@
         <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C3">
         <v>72</v>
@@ -5844,7 +5841,7 @@
         <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -6084,7 +6081,7 @@
         <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C2">
         <v>70</v>
@@ -6099,10 +6096,10 @@
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I2" t="s">
         <v>195</v>
@@ -6116,7 +6113,7 @@
         <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
@@ -6131,7 +6128,7 @@
         <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6139,10 +6136,10 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -6154,13 +6151,13 @@
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -6213,7 +6210,7 @@
         <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D2" t="s">
         <v>40</v>
@@ -6284,10 +6281,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -6299,10 +6296,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I2" t="s">
         <v>84</v>
@@ -6313,10 +6310,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D3" t="s">
         <v>69</v>
@@ -6328,13 +6325,13 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6342,7 +6339,7 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
@@ -6354,13 +6351,13 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6368,7 +6365,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C5">
         <v>90</v>
@@ -6377,19 +6374,19 @@
         <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F5">
         <v>2.2</v>
       </c>
       <c r="G5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6397,7 +6394,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C6">
         <v>80</v>
@@ -6412,13 +6409,13 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6426,10 +6423,10 @@
         <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
@@ -6441,10 +6438,10 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I7" t="s">
         <v>84</v>
@@ -6455,28 +6452,28 @@
         <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C8">
         <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F8">
         <v>2.2</v>
       </c>
       <c r="G8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6484,10 +6481,10 @@
         <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D9" t="s">
         <v>69</v>
@@ -6499,13 +6496,13 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6513,25 +6510,25 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F10">
         <v>2.2</v>
       </c>
       <c r="G10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6539,28 +6536,28 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D11" t="s">
         <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>460</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6568,10 +6565,10 @@
         <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D12" t="s">
         <v>70</v>
@@ -6583,7 +6580,7 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I12" t="s">
         <v>84</v>
@@ -6594,7 +6591,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
@@ -6606,13 +6603,13 @@
         <v>2.1</v>
       </c>
       <c r="G13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6620,28 +6617,28 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D14" t="s">
         <v>202</v>
       </c>
       <c r="E14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6649,28 +6646,28 @@
         <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F15">
         <v>2.2</v>
       </c>
       <c r="G15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6678,10 +6675,10 @@
         <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D16" t="s">
         <v>70</v>
@@ -6693,10 +6690,10 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I16" t="s">
         <v>84</v>
@@ -6707,7 +6704,7 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C17">
         <v>90</v>
@@ -6722,13 +6719,13 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6736,28 +6733,28 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D18" t="s">
         <v>202</v>
       </c>
       <c r="E18" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6765,7 +6762,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D19" t="s">
         <v>41</v>
@@ -6777,13 +6774,13 @@
         <v>2.1</v>
       </c>
       <c r="G19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6791,28 +6788,28 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D20" t="s">
         <v>202</v>
       </c>
       <c r="E20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H20" t="s">
+        <v>498</v>
+      </c>
+      <c r="I20" t="s">
         <v>499</v>
-      </c>
-      <c r="I20" t="s">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -6865,7 +6862,7 @@
         <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C2">
         <v>82</v>
@@ -6880,13 +6877,13 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6894,7 +6891,7 @@
         <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C3">
         <v>73</v>
@@ -6903,19 +6900,19 @@
         <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F3">
         <v>2.6</v>
       </c>
       <c r="G3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H3" t="s">
+        <v>508</v>
+      </c>
+      <c r="I3" t="s">
         <v>509</v>
-      </c>
-      <c r="I3" t="s">
-        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -6968,10 +6965,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
@@ -6980,10 +6977,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I2" t="s">
         <v>55</v>
@@ -6994,13 +6991,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C3" t="s">
         <v>512</v>
       </c>
-      <c r="C3" t="s">
-        <v>513</v>
-      </c>
       <c r="D3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -7009,10 +7006,10 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I3" t="s">
         <v>55</v>
@@ -7071,7 +7068,7 @@
         <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D2" t="s">
         <v>43</v>
@@ -7086,7 +7083,7 @@
         <v>252</v>
       </c>
       <c r="H2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I2" t="s">
         <v>195</v>
@@ -7097,7 +7094,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
@@ -7112,13 +7109,13 @@
         <v>1.5</v>
       </c>
       <c r="G3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -7171,7 +7168,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D2" t="s">
         <v>43</v>
@@ -7183,13 +7180,13 @@
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7197,10 +7194,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D3" t="s">
         <v>68</v>
@@ -7212,13 +7209,13 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7226,10 +7223,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -7241,13 +7238,13 @@
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -7300,7 +7297,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C2">
         <v>57.5</v>
@@ -7315,10 +7312,10 @@
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I2" t="s">
         <v>195</v>
@@ -7329,7 +7326,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C3" t="s">
         <v>300</v>
@@ -7344,10 +7341,10 @@
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I3" t="s">
         <v>243</v>
@@ -7403,25 +7400,25 @@
         <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F2">
         <v>2.2</v>
       </c>
       <c r="G2" t="s">
+        <v>541</v>
+      </c>
+      <c r="H2" t="s">
         <v>542</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>543</v>
-      </c>
-      <c r="I2" t="s">
-        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -7474,7 +7471,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
@@ -7489,13 +7486,13 @@
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7503,10 +7500,10 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C3" t="s">
         <v>545</v>
-      </c>
-      <c r="C3" t="s">
-        <v>546</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
@@ -7518,13 +7515,13 @@
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -7738,7 +7735,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
@@ -7753,13 +7750,13 @@
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7767,10 +7764,10 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
@@ -7782,10 +7779,10 @@
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I3" t="s">
         <v>243</v>
@@ -7796,10 +7793,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D4" t="s">
         <v>68</v>
@@ -7811,7 +7808,7 @@
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I4" t="s">
         <v>208</v>
@@ -7867,7 +7864,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D2" t="s">
         <v>43</v>
@@ -7879,13 +7876,13 @@
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H2" t="s">
         <v>416</v>
       </c>
-      <c r="H2" t="s">
-        <v>417</v>
-      </c>
       <c r="I2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7893,7 +7890,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C3">
         <v>57</v>
@@ -7908,13 +7905,13 @@
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7922,7 +7919,7 @@
         <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C4">
         <v>62</v>
@@ -7940,7 +7937,7 @@
         <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7948,7 +7945,7 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C5">
         <v>75</v>
@@ -7963,10 +7960,10 @@
         <v>2.5</v>
       </c>
       <c r="G5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I5" t="s">
         <v>195</v>
@@ -7980,7 +7977,7 @@
         <v>293</v>
       </c>
       <c r="C6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
@@ -7995,7 +7992,7 @@
         <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -8003,10 +8000,10 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
@@ -8018,13 +8015,13 @@
         <v>2.5</v>
       </c>
       <c r="G7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -8077,13 +8074,13 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
@@ -8092,10 +8089,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I2" t="s">
         <v>54</v>
@@ -8106,7 +8103,7 @@
         <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C3">
         <v>89</v>
@@ -8121,13 +8118,13 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8135,13 +8132,13 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C4">
         <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
@@ -8150,10 +8147,10 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I4" t="s">
         <v>54</v>
@@ -8164,7 +8161,7 @@
         <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C5">
         <v>93</v>
@@ -8173,19 +8170,19 @@
         <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F5">
         <v>2.6</v>
       </c>
       <c r="G5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -8193,13 +8190,13 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
@@ -8208,10 +8205,10 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I6" t="s">
         <v>54</v>
@@ -8222,25 +8219,25 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -8322,7 +8319,7 @@
         <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D3" t="s">
         <v>93</v>
@@ -8334,10 +8331,10 @@
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I3" t="s">
         <v>258</v>
@@ -8351,7 +8348,7 @@
         <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -8380,25 +8377,25 @@
         <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D5" t="s">
         <v>304</v>
       </c>
       <c r="E5" t="s">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="F5">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -8406,10 +8403,10 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
@@ -8421,13 +8418,13 @@
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -8567,7 +8564,7 @@
         <v>210</v>
       </c>
       <c r="C5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
@@ -8590,10 +8587,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>585</v>
+      </c>
+      <c r="B6" t="s">
         <v>586</v>
-      </c>
-      <c r="B6" t="s">
-        <v>587</v>
       </c>
       <c r="C6">
         <v>55</v>
@@ -8608,10 +8605,10 @@
         <v>2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I6" t="s">
         <v>135</v>
@@ -8625,7 +8622,7 @@
         <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D7" t="s">
         <v>93</v>
@@ -8654,7 +8651,7 @@
         <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D8" t="s">
         <v>68</v>
@@ -8725,54 +8722,54 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I3" t="s">
         <v>175</v>
@@ -8783,10 +8780,10 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -8798,13 +8795,13 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -8812,28 +8809,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -8841,10 +8838,10 @@
         <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D6" t="s">
         <v>68</v>
@@ -8856,10 +8853,10 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I6" t="s">
         <v>175</v>
@@ -8870,28 +8867,28 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C7">
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -8899,28 +8896,28 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -8973,10 +8970,10 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D2" t="s">
         <v>224</v>
@@ -8988,10 +8985,10 @@
         <v>1.5</v>
       </c>
       <c r="G2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I2" t="s">
         <v>84</v>
@@ -9002,10 +8999,10 @@
         <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -9014,13 +9011,13 @@
         <v>1.5</v>
       </c>
       <c r="G3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9028,13 +9025,13 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C4" t="s">
+        <v>623</v>
+      </c>
+      <c r="D4" t="s">
         <v>624</v>
-      </c>
-      <c r="D4" t="s">
-        <v>625</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -9043,10 +9040,10 @@
         <v>1.5</v>
       </c>
       <c r="G4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I4" t="s">
         <v>84</v>
@@ -9057,25 +9054,25 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D5" t="s">
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F5">
         <v>1.5</v>
       </c>
       <c r="G5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H5" t="s">
+        <v>632</v>
+      </c>
+      <c r="I5" t="s">
         <v>633</v>
-      </c>
-      <c r="I5" t="s">
-        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -9128,10 +9125,10 @@
         <v>106</v>
       </c>
       <c r="B2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C2" t="s">
         <v>635</v>
-      </c>
-      <c r="C2" t="s">
-        <v>636</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -9143,10 +9140,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
+        <v>636</v>
+      </c>
+      <c r="H2" t="s">
         <v>637</v>
-      </c>
-      <c r="H2" t="s">
-        <v>638</v>
       </c>
       <c r="I2" t="s">
         <v>175</v>
@@ -9202,7 +9199,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
@@ -9217,13 +9214,13 @@
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9231,25 +9228,25 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C3" t="s">
         <v>639</v>
-      </c>
-      <c r="C3" t="s">
-        <v>640</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
+        <v>643</v>
+      </c>
+      <c r="H3" t="s">
         <v>644</v>
-      </c>
-      <c r="H3" t="s">
-        <v>645</v>
       </c>
       <c r="I3" t="s">
         <v>195</v>
@@ -9260,28 +9257,28 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C4" t="s">
         <v>545</v>
       </c>
-      <c r="C4" t="s">
-        <v>546</v>
-      </c>
       <c r="D4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E4" t="s">
         <v>642</v>
       </c>
-      <c r="E4" t="s">
-        <v>643</v>
-      </c>
       <c r="F4">
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9292,7 +9289,7 @@
         <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
@@ -9307,7 +9304,7 @@
         <v>252</v>
       </c>
       <c r="H5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I5" t="s">
         <v>195</v>
@@ -9336,7 +9333,7 @@
         <v>239</v>
       </c>
       <c r="H6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I6" t="s">
         <v>243</v>
@@ -9392,7 +9389,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D2" t="s">
         <v>43</v>
@@ -9404,13 +9401,13 @@
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H2" t="s">
         <v>416</v>
       </c>
-      <c r="H2" t="s">
-        <v>417</v>
-      </c>
       <c r="I2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9418,7 +9415,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C3">
         <v>72</v>
@@ -9433,13 +9430,13 @@
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9447,7 +9444,7 @@
         <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C4">
         <v>65</v>
@@ -9465,7 +9462,7 @@
         <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9473,7 +9470,7 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C5">
         <v>90</v>
@@ -9488,10 +9485,10 @@
         <v>2.5</v>
       </c>
       <c r="G5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I5" t="s">
         <v>195</v>
@@ -9505,7 +9502,7 @@
         <v>293</v>
       </c>
       <c r="C6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
@@ -9520,7 +9517,7 @@
         <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9528,10 +9525,10 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
@@ -9543,13 +9540,13 @@
         <v>2.5</v>
       </c>
       <c r="G7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -9853,7 +9850,7 @@
         <v>293</v>
       </c>
       <c r="C2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D2" t="s">
         <v>43</v>
@@ -9865,10 +9862,10 @@
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I2" t="s">
         <v>258</v>
@@ -9966,7 +9963,7 @@
         <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
@@ -10007,10 +10004,10 @@
         <v>2.5</v>
       </c>
       <c r="G7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I7" t="s">
         <v>135</v>
@@ -10053,7 +10050,7 @@
         <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D9" t="s">
         <v>68</v>
@@ -10068,7 +10065,7 @@
         <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I9" t="s">
         <v>133</v>
@@ -10124,7 +10121,7 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D2" t="s">
         <v>43</v>
@@ -10136,13 +10133,13 @@
         <v>2.5</v>
       </c>
       <c r="G2" t="s">
+        <v>659</v>
+      </c>
+      <c r="H2" t="s">
         <v>660</v>
       </c>
-      <c r="H2" t="s">
-        <v>661</v>
-      </c>
       <c r="I2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10150,10 +10147,10 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C3" t="s">
         <v>658</v>
-      </c>
-      <c r="C3" t="s">
-        <v>659</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
@@ -10165,13 +10162,13 @@
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
